--- a/protected/modules/excel/templates/EvaluaciondeDesempenoTemplate2.xlsx
+++ b/protected/modules/excel/templates/EvaluaciondeDesempenoTemplate2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Módulo de Evaluación de Desempeño</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Nombre Evaluador:</t>
   </si>
   <si>
-    <t>Fecha de Evaluación:</t>
-  </si>
-  <si>
     <t>Calificación de Desempeño</t>
   </si>
   <si>
@@ -137,12 +134,6 @@
     <t>Competencia</t>
   </si>
   <si>
-    <t>trabajo</t>
-  </si>
-  <si>
-    <t>decisiones</t>
-  </si>
-  <si>
     <t>investigacion</t>
   </si>
   <si>
@@ -155,14 +146,32 @@
     <t>esfuerzo</t>
   </si>
   <si>
-    <t>Fecha de Registro de Compromisos</t>
+    <t>Firma Evaluador</t>
+  </si>
+  <si>
+    <t>Firma Colaborador</t>
+  </si>
+  <si>
+    <t>Alineamiento organizacional</t>
+  </si>
+  <si>
+    <t>Pensamiento estrategico</t>
+  </si>
+  <si>
+    <t>Toma de decisiones</t>
+  </si>
+  <si>
+    <t>Fecha de Registro de Evaluación:</t>
+  </si>
+  <si>
+    <t>Fecha de Registro de Compromisos:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,6 +249,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -285,7 +309,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -451,11 +475,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -511,6 +553,207 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -518,201 +761,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -800,13 +850,6 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$K$34</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
               <c:f>Sheet1!$K$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -818,13 +861,6 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$K$35:$K$46</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
               <c:f>Sheet1!$K$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -842,13 +878,6 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$K$34</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
               <c:f>Sheet1!$K$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -860,13 +889,6 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$K$36</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
               <c:f>Sheet1!$K$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -881,13 +903,6 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$K$34</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
               <c:f>Sheet1!$K$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -899,13 +914,6 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$K$37</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
               <c:f>Sheet1!$K$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -920,13 +928,6 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$K$34</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
               <c:f>Sheet1!$K$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -938,13 +939,6 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$K$38</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
               <c:f>Sheet1!$K$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -959,13 +953,6 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$K$34</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
               <c:f>Sheet1!$K$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -977,13 +964,6 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$K$39</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
               <c:f>Sheet1!$K$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -998,13 +978,6 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$K$34</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
               <c:f>Sheet1!$K$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -1016,13 +989,6 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$K$40</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
               <c:f>Sheet1!$K$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -1037,13 +1003,6 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$K$34</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
               <c:f>Sheet1!$K$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -1055,13 +1014,6 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$K$41</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
               <c:f>Sheet1!$K$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -1076,13 +1028,6 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$K$34</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
               <c:f>Sheet1!$K$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -1094,13 +1039,6 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$K$42</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
               <c:f>Sheet1!$K$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -1115,13 +1053,6 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$K$34</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
               <c:f>Sheet1!$K$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -1133,13 +1064,6 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$K$43</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
               <c:f>Sheet1!$K$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -1154,13 +1078,6 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$K$34</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
               <c:f>Sheet1!$K$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -1172,13 +1089,6 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$K$44</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
               <c:f>Sheet1!$K$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -1193,13 +1103,6 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$K$34</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
               <c:f>Sheet1!$K$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -1211,13 +1114,6 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$K$45</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
               <c:f>Sheet1!$K$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -1232,13 +1128,6 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$K$34</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
               <c:f>Sheet1!$K$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -1250,17 +1139,122 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$K$46</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
               <c:f>Sheet1!$K$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Puntaje</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Puntaje</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Puntaje</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Puntaje</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1275,11 +1269,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="218700168"/>
-        <c:axId val="218701344"/>
+        <c:axId val="198603392"/>
+        <c:axId val="198603784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="218700168"/>
+        <c:axId val="198603392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1289,7 +1283,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="218701344"/>
+        <c:crossAx val="198603784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1297,7 +1291,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="218701344"/>
+        <c:axId val="198603784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1384,7 +1378,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="218700168"/>
+        <c:crossAx val="198603392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1512,17 +1506,17 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$E$49:$E$55</c:f>
+              <c:f>Sheet1!$E$49:$E$60</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>solucion</c:v>
+                  <c:v>Alineamiento organizacional</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>trabajo</c:v>
+                  <c:v>Pensamiento estrategico</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>decisiones</c:v>
+                  <c:v>Toma de decisiones</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>investigacion</c:v>
@@ -1541,10 +1535,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$49:$F$55</c:f>
+              <c:f>Sheet1!$F$49:$F$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1580,11 +1574,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="218693896"/>
-        <c:axId val="218694288"/>
+        <c:axId val="198606136"/>
+        <c:axId val="198606528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="218693896"/>
+        <c:axId val="198606136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1594,7 +1588,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="218694288"/>
+        <c:crossAx val="198606528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1602,7 +1596,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="218694288"/>
+        <c:axId val="198606528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1689,7 +1683,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="218693896"/>
+        <c:crossAx val="198606136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1749,7 +1743,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>104774</xdr:colOff>
+      <xdr:colOff>238124</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
@@ -1775,15 +1769,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:colOff>390524</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>895350</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2071,10 +2065,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M79"/>
+  <dimension ref="A1:M85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64:E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2082,119 +2076,119 @@
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="7" customWidth="1"/>
     <col min="7" max="7" width="12.140625" customWidth="1"/>
     <col min="8" max="8" width="22.140625" customWidth="1"/>
     <col min="9" max="9" width="11.85546875" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" customWidth="1"/>
-    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" customWidth="1"/>
     <col min="12" max="12" width="11.85546875" customWidth="1"/>
     <col min="13" max="13" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
       <c r="L1" s="9"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
       <c r="L2" s="10"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="50"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="50" t="s">
+      <c r="G5" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="50"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="76" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
+      <c r="B6" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="75"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="77" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="77"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
+      <c r="G6" s="76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="76"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
+      <c r="A9" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
@@ -2232,7 +2226,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K17" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L17" s="11">
         <v>2</v>
@@ -2240,7 +2234,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K18" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L18" s="11">
         <v>3</v>
@@ -2248,7 +2242,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K19" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L19" s="11">
         <v>4</v>
@@ -2256,7 +2250,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K20" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L20" s="11">
         <v>5</v>
@@ -2264,7 +2258,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K21" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L21" s="11">
         <v>2</v>
@@ -2272,7 +2266,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K22" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L22" s="11">
         <v>1</v>
@@ -2280,7 +2274,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K23" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L23" s="11">
         <v>2</v>
@@ -2288,7 +2282,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K24" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L24" s="11">
         <v>1</v>
@@ -2323,207 +2317,207 @@
       <c r="M33" s="2"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="81" t="s">
+      <c r="A34" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="70"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="81"/>
-      <c r="C34" s="81"/>
-      <c r="D34" s="81"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="81" t="s">
+      <c r="G34" s="70"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="70"/>
+      <c r="J34" s="70"/>
+      <c r="K34" s="22" t="s">
         <v>33</v>
-      </c>
-      <c r="G34" s="81"/>
-      <c r="H34" s="81"/>
-      <c r="I34" s="81"/>
-      <c r="J34" s="81"/>
-      <c r="K34" s="82" t="s">
-        <v>34</v>
       </c>
       <c r="L34" s="7"/>
       <c r="M34" s="2"/>
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="52"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="61"/>
-      <c r="J35" s="62"/>
-      <c r="K35" s="69">
+      <c r="A35" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="71">
         <v>2</v>
       </c>
       <c r="L35" s="7"/>
       <c r="M35" s="2"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="54"/>
-      <c r="B36" s="55"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="63"/>
-      <c r="G36" s="64"/>
-      <c r="H36" s="64"/>
-      <c r="I36" s="64"/>
-      <c r="J36" s="65"/>
-      <c r="K36" s="70"/>
+      <c r="A36" s="30"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="72"/>
       <c r="L36" s="7"/>
       <c r="M36" s="2"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="54"/>
-      <c r="B37" s="55"/>
-      <c r="C37" s="55"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="63"/>
-      <c r="G37" s="64"/>
-      <c r="H37" s="64"/>
-      <c r="I37" s="64"/>
-      <c r="J37" s="65"/>
-      <c r="K37" s="70"/>
+      <c r="A37" s="30"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="72"/>
       <c r="L37" s="7"/>
       <c r="M37" s="2"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="57"/>
-      <c r="B38" s="58"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="67"/>
-      <c r="H38" s="67"/>
-      <c r="I38" s="67"/>
-      <c r="J38" s="68"/>
-      <c r="K38" s="71"/>
+    <row r="38" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="33"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="73"/>
       <c r="L38" s="7"/>
       <c r="M38" s="2"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="51"/>
-      <c r="B39" s="52"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="61"/>
-      <c r="J39" s="62"/>
-      <c r="K39" s="72"/>
+      <c r="A39" s="37"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="23"/>
       <c r="L39" s="7"/>
       <c r="M39" s="2"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="54"/>
-      <c r="B40" s="55"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="63"/>
-      <c r="G40" s="64"/>
-      <c r="H40" s="64"/>
-      <c r="I40" s="64"/>
-      <c r="J40" s="65"/>
-      <c r="K40" s="73"/>
+      <c r="A40" s="40"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="24"/>
       <c r="L40" s="7"/>
       <c r="M40" s="2"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="54"/>
-      <c r="B41" s="55"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="56"/>
-      <c r="F41" s="63"/>
-      <c r="G41" s="64"/>
-      <c r="H41" s="64"/>
-      <c r="I41" s="64"/>
-      <c r="J41" s="65"/>
-      <c r="K41" s="73"/>
+      <c r="A41" s="40"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="24"/>
       <c r="L41" s="7"/>
       <c r="M41" s="2"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="57"/>
-      <c r="B42" s="58"/>
-      <c r="C42" s="58"/>
-      <c r="D42" s="58"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="66"/>
-      <c r="G42" s="67"/>
-      <c r="H42" s="67"/>
-      <c r="I42" s="67"/>
-      <c r="J42" s="68"/>
-      <c r="K42" s="74"/>
+    <row r="42" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="43"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="45"/>
+      <c r="K42" s="25"/>
       <c r="L42" s="7"/>
       <c r="M42" s="2"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="26"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="25"/>
+      <c r="A43" s="36"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="86"/>
       <c r="L43" s="7"/>
       <c r="M43" s="2"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="26"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="25"/>
+      <c r="A44" s="36"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="86"/>
       <c r="L44" s="7"/>
       <c r="M44" s="2"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="26"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="25"/>
+      <c r="A45" s="36"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="86"/>
       <c r="L45" s="7"/>
       <c r="M45" s="2"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="26"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="25"/>
+    <row r="46" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="36"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="86"/>
       <c r="L46" s="7"/>
       <c r="M46" s="2"/>
     </row>
@@ -2547,11 +2541,11 @@
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
-      <c r="E48" s="79" t="s">
-        <v>36</v>
-      </c>
-      <c r="F48" s="80" t="s">
-        <v>34</v>
+      <c r="E48" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="F48" s="82" t="s">
+        <v>33</v>
       </c>
       <c r="G48" s="17"/>
       <c r="H48" s="16"/>
@@ -2561,13 +2555,13 @@
       <c r="L48" s="7"/>
       <c r="M48" s="2"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
       <c r="E49" s="19" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="F49" s="20">
         <v>2</v>
@@ -2586,7 +2580,7 @@
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
       <c r="E50" s="19" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F50" s="20">
         <v>4</v>
@@ -2605,7 +2599,7 @@
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
       <c r="E51" s="19" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F51" s="20">
         <v>4</v>
@@ -2618,13 +2612,13 @@
       <c r="L51" s="7"/>
       <c r="M51" s="2"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="13"/>
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
       <c r="E52" s="19" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F52" s="20">
         <v>3</v>
@@ -2637,13 +2631,13 @@
       <c r="L52" s="7"/>
       <c r="M52" s="2"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
       <c r="E53" s="19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F53" s="20">
         <v>5</v>
@@ -2662,7 +2656,7 @@
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
       <c r="E54" s="19" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F54" s="20">
         <v>5</v>
@@ -2681,7 +2675,7 @@
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
       <c r="E55" s="19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F55" s="21">
         <v>4</v>
@@ -2695,12 +2689,12 @@
       <c r="M55" s="2"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="23"/>
+      <c r="A56" s="12"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="84"/>
+      <c r="F56" s="85"/>
       <c r="G56" s="17"/>
       <c r="H56" s="6"/>
       <c r="I56" s="7"/>
@@ -2710,268 +2704,332 @@
       <c r="M56" s="2"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
-      <c r="L57" s="5"/>
-    </row>
-    <row r="58" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="28" t="s">
+      <c r="A57" s="12"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="84"/>
+      <c r="F57" s="85"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="2"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="12"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="84"/>
+      <c r="F58" s="85"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="2"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="12"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="84"/>
+      <c r="F59" s="85"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="2"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="84"/>
+      <c r="F60" s="85"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="2"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+    </row>
+    <row r="62" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" s="56"/>
+      <c r="C62" s="56"/>
+      <c r="D62" s="56"/>
+      <c r="E62" s="56"/>
+      <c r="F62" s="56"/>
+      <c r="G62" s="56"/>
+      <c r="H62" s="56"/>
+      <c r="I62" s="56"/>
+      <c r="J62" s="56"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B64" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B58" s="28"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="28"/>
-      <c r="J58" s="28"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B60" s="37" t="s">
+      <c r="C64" s="58"/>
+      <c r="D64" s="55">
+        <v>3</v>
+      </c>
+      <c r="E64" s="55"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="H64" s="50"/>
+      <c r="I64" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="J64" s="50"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B65" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="C60" s="38"/>
-      <c r="D60" s="39">
-        <v>3</v>
-      </c>
-      <c r="E60" s="39"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="H60" s="32"/>
-      <c r="I60" s="31" t="s">
+      <c r="C65" s="58"/>
+      <c r="D65" s="55">
+        <v>2</v>
+      </c>
+      <c r="E65" s="55"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="J60" s="32"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B61" s="37" t="s">
+      <c r="H65" s="52"/>
+      <c r="I65" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="J65" s="60"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B66" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="C61" s="38"/>
-      <c r="D61" s="39">
-        <v>2</v>
-      </c>
-      <c r="E61" s="39"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="33" t="s">
+      <c r="C66" s="58"/>
+      <c r="D66" s="55"/>
+      <c r="E66" s="55"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="H61" s="34"/>
-      <c r="I61" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="J61" s="41"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B62" s="37" t="s">
+      <c r="H66" s="52"/>
+      <c r="I66" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="J66" s="62"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B67" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C62" s="38"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="39"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="33" t="s">
+      <c r="C67" s="58"/>
+      <c r="D67" s="55"/>
+      <c r="E67" s="55"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="H62" s="34"/>
-      <c r="I62" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="J62" s="43"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B63" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C63" s="38"/>
-      <c r="D63" s="39"/>
-      <c r="E63" s="39"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="33" t="s">
+      <c r="H67" s="52"/>
+      <c r="I67" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="J67" s="64"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G68" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="H63" s="34"/>
-      <c r="I63" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="J63" s="45"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G64" s="35" t="s">
+      <c r="H68" s="54"/>
+      <c r="I68" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="J68" s="66"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G69" s="53">
+        <v>5</v>
+      </c>
+      <c r="H69" s="54"/>
+      <c r="I69" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="H64" s="36"/>
-      <c r="I64" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="J64" s="47"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G65" s="35">
-        <v>5</v>
-      </c>
-      <c r="H65" s="36"/>
-      <c r="I65" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="J65" s="30"/>
-    </row>
-    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="28"/>
-      <c r="B67" s="28"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="28"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="28"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="28"/>
-      <c r="J67" s="28"/>
-      <c r="K67" s="4"/>
-      <c r="L67" s="4"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="3"/>
-      <c r="B68" s="24"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="24"/>
-      <c r="G68" s="24"/>
-      <c r="H68" s="24"/>
-      <c r="I68" s="24"/>
-      <c r="J68" s="24"/>
-      <c r="K68" s="24"/>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="3"/>
-      <c r="B69" s="24"/>
-      <c r="C69" s="24"/>
-      <c r="D69" s="24"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="24"/>
-      <c r="H69" s="24"/>
-      <c r="I69" s="24"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
-      <c r="B70" s="24"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="24"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="24"/>
-      <c r="G70" s="24"/>
-      <c r="H70" s="24"/>
-      <c r="I70" s="24"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
-      <c r="B71" s="24"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="24"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="24"/>
-      <c r="G71" s="24"/>
-      <c r="H71" s="24"/>
-      <c r="I71" s="24"/>
-      <c r="J71" s="3"/>
-      <c r="K71" s="3"/>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="3"/>
-      <c r="B72" s="24"/>
-      <c r="C72" s="24"/>
-      <c r="D72" s="24"/>
-      <c r="E72" s="24"/>
-      <c r="F72" s="24"/>
-      <c r="G72" s="24"/>
-      <c r="H72" s="24"/>
-      <c r="I72" s="24"/>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="28"/>
-      <c r="B74" s="28"/>
-      <c r="C74" s="28"/>
-      <c r="D74" s="28"/>
-      <c r="E74" s="28"/>
-      <c r="F74" s="28"/>
-      <c r="G74" s="28"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="28"/>
-      <c r="J74" s="28"/>
+      <c r="J69" s="48"/>
+    </row>
+    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="3"/>
+      <c r="B75" s="80"/>
+      <c r="C75" s="80"/>
+      <c r="D75" s="80"/>
+      <c r="E75" s="80"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="78"/>
+      <c r="I75" s="78"/>
+      <c r="J75" s="78"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B76" s="24"/>
-      <c r="C76" s="24"/>
-      <c r="D76" s="24"/>
-      <c r="E76" s="24"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="24"/>
-      <c r="H76" s="24"/>
-      <c r="I76" s="24"/>
+      <c r="A76" s="3"/>
+      <c r="B76" s="79" t="s">
+        <v>40</v>
+      </c>
+      <c r="C76" s="79"/>
+      <c r="D76" s="79"/>
+      <c r="E76" s="79"/>
+      <c r="F76" s="81"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="I76" s="79"/>
+      <c r="J76" s="79"/>
+      <c r="K76" s="81"/>
+      <c r="L76" s="81"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B77" s="24"/>
-      <c r="C77" s="24"/>
-      <c r="D77" s="24"/>
-      <c r="E77" s="24"/>
-      <c r="F77" s="24"/>
-      <c r="G77" s="24"/>
-      <c r="H77" s="24"/>
-      <c r="I77" s="24"/>
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B78" s="24"/>
-      <c r="C78" s="24"/>
-      <c r="D78" s="24"/>
-      <c r="E78" s="24"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="24"/>
-      <c r="H78" s="24"/>
-      <c r="I78" s="24"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B79" s="24"/>
-      <c r="C79" s="24"/>
-      <c r="D79" s="24"/>
-      <c r="E79" s="24"/>
-      <c r="F79" s="24"/>
-      <c r="G79" s="24"/>
-      <c r="H79" s="24"/>
-      <c r="I79" s="24"/>
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+    </row>
+    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="46"/>
+      <c r="E82" s="46"/>
+      <c r="F82" s="46"/>
+      <c r="G82" s="46"/>
+      <c r="H82" s="46"/>
+      <c r="I82" s="46"/>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
-  <mergeCells count="64">
-    <mergeCell ref="K39:K42"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
+  <mergeCells count="55">
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="I7:J7"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
@@ -2981,8 +3039,7 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B67:C67"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="G4:H4"/>
@@ -2990,48 +3047,40 @@
     <mergeCell ref="A35:E38"/>
     <mergeCell ref="F35:J38"/>
     <mergeCell ref="K35:K38"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="A67:J67"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
     <mergeCell ref="A39:E42"/>
     <mergeCell ref="F39:J42"/>
-    <mergeCell ref="B77:C79"/>
-    <mergeCell ref="D77:E79"/>
-    <mergeCell ref="F77:G79"/>
-    <mergeCell ref="H77:I79"/>
-    <mergeCell ref="A74:J74"/>
-    <mergeCell ref="B72:I72"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="B69:I69"/>
-    <mergeCell ref="B70:I70"/>
-    <mergeCell ref="B71:I71"/>
+    <mergeCell ref="K39:K42"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="A62:J62"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="I68:J68"/>
     <mergeCell ref="K43:K46"/>
     <mergeCell ref="A43:E46"/>
     <mergeCell ref="F43:J46"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="B68:K68"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/protected/modules/excel/templates/EvaluaciondeDesempenoTemplate2.xlsx
+++ b/protected/modules/excel/templates/EvaluaciondeDesempenoTemplate2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teto\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teto\Desktop\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$77</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>Módulo de Evaluación de Desempeño</t>
   </si>
@@ -165,13 +168,16 @@
   </si>
   <si>
     <t>Fecha de Registro de Compromisos:</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,6 +270,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -309,7 +336,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -493,11 +520,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -557,194 +628,6 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -761,8 +644,254 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -1147,118 +1276,6 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:ser>
-          <c:idx val="12"/>
-          <c:order val="12"/>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$K$34</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Puntaje</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="13"/>
-          <c:order val="13"/>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$K$34</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Puntaje</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="14"/>
-          <c:order val="14"/>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$K$34</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Puntaje</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="15"/>
-          <c:order val="15"/>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$K$34</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Puntaje</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1269,11 +1286,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="198603392"/>
-        <c:axId val="198603784"/>
+        <c:axId val="211529568"/>
+        <c:axId val="211529960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="198603392"/>
+        <c:axId val="211529568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1283,7 +1300,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198603784"/>
+        <c:crossAx val="211529960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1291,7 +1308,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198603784"/>
+        <c:axId val="211529960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1378,7 +1395,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198603392"/>
+        <c:crossAx val="211529568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1506,7 +1523,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$E$49:$E$60</c:f>
+              <c:f>Sheet1!$E$49:$E$55</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -1535,10 +1552,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$49:$F$60</c:f>
+              <c:f>Sheet1!$F$49:$F$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1574,11 +1591,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="198606136"/>
-        <c:axId val="198606528"/>
+        <c:axId val="211530744"/>
+        <c:axId val="211531136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="198606136"/>
+        <c:axId val="211530744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1588,7 +1605,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198606528"/>
+        <c:crossAx val="211531136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1596,7 +1613,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198606528"/>
+        <c:axId val="211531136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1683,7 +1700,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198606136"/>
+        <c:crossAx val="211530744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2068,7 +2085,7 @@
   <dimension ref="A1:M85"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64:E64"/>
+      <selection activeCell="B58" sqref="B58:J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2089,106 +2106,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
       <c r="L1" s="9"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
       <c r="L2" s="10"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="69" t="s">
+      <c r="G4" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="69"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="69" t="s">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="69" t="s">
+      <c r="G5" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="69"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="76" t="s">
+      <c r="G6" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="76"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
@@ -2317,20 +2334,20 @@
       <c r="M33" s="2"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="70" t="s">
+      <c r="A34" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="70"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70" t="s">
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="G34" s="70"/>
-      <c r="H34" s="70"/>
-      <c r="I34" s="70"/>
-      <c r="J34" s="70"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
       <c r="K34" s="22" t="s">
         <v>33</v>
       </c>
@@ -2338,186 +2355,186 @@
       <c r="M34" s="2"/>
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="27" t="s">
+      <c r="A35" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="71">
+      <c r="B35" s="51"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="61"/>
+      <c r="K35" s="68">
         <v>2</v>
       </c>
       <c r="L35" s="7"/>
       <c r="M35" s="2"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="30"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="72"/>
+      <c r="A36" s="53"/>
+      <c r="B36" s="54"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="63"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="69"/>
       <c r="L36" s="7"/>
       <c r="M36" s="2"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="30"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="72"/>
+      <c r="A37" s="53"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="63"/>
+      <c r="J37" s="64"/>
+      <c r="K37" s="69"/>
       <c r="L37" s="7"/>
       <c r="M37" s="2"/>
     </row>
     <row r="38" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="33"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="45"/>
-      <c r="K38" s="73"/>
+      <c r="A38" s="56"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="66"/>
+      <c r="I38" s="66"/>
+      <c r="J38" s="67"/>
+      <c r="K38" s="70"/>
       <c r="L38" s="7"/>
       <c r="M38" s="2"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="37"/>
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="23"/>
+      <c r="A39" s="71"/>
+      <c r="B39" s="72"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="60"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="61"/>
+      <c r="K39" s="80"/>
       <c r="L39" s="7"/>
       <c r="M39" s="2"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="40"/>
-      <c r="B40" s="41"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="24"/>
+      <c r="A40" s="74"/>
+      <c r="B40" s="75"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="63"/>
+      <c r="H40" s="63"/>
+      <c r="I40" s="63"/>
+      <c r="J40" s="64"/>
+      <c r="K40" s="81"/>
       <c r="L40" s="7"/>
       <c r="M40" s="2"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="40"/>
-      <c r="B41" s="41"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="24"/>
+      <c r="A41" s="74"/>
+      <c r="B41" s="75"/>
+      <c r="C41" s="75"/>
+      <c r="D41" s="75"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="62"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="63"/>
+      <c r="J41" s="64"/>
+      <c r="K41" s="81"/>
       <c r="L41" s="7"/>
       <c r="M41" s="2"/>
     </row>
     <row r="42" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="43"/>
-      <c r="B42" s="44"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="45"/>
-      <c r="K42" s="25"/>
+      <c r="A42" s="77"/>
+      <c r="B42" s="78"/>
+      <c r="C42" s="78"/>
+      <c r="D42" s="78"/>
+      <c r="E42" s="79"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="66"/>
+      <c r="J42" s="67"/>
+      <c r="K42" s="82"/>
       <c r="L42" s="7"/>
       <c r="M42" s="2"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="36"/>
-      <c r="B43" s="36"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="86"/>
+      <c r="A43" s="84"/>
+      <c r="B43" s="84"/>
+      <c r="C43" s="84"/>
+      <c r="D43" s="84"/>
+      <c r="E43" s="84"/>
+      <c r="F43" s="85"/>
+      <c r="G43" s="85"/>
+      <c r="H43" s="85"/>
+      <c r="I43" s="85"/>
+      <c r="J43" s="85"/>
+      <c r="K43" s="83"/>
       <c r="L43" s="7"/>
       <c r="M43" s="2"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="36"/>
-      <c r="B44" s="36"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="26"/>
-      <c r="K44" s="86"/>
+      <c r="A44" s="84"/>
+      <c r="B44" s="84"/>
+      <c r="C44" s="84"/>
+      <c r="D44" s="84"/>
+      <c r="E44" s="84"/>
+      <c r="F44" s="85"/>
+      <c r="G44" s="85"/>
+      <c r="H44" s="85"/>
+      <c r="I44" s="85"/>
+      <c r="J44" s="85"/>
+      <c r="K44" s="83"/>
       <c r="L44" s="7"/>
       <c r="M44" s="2"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="36"/>
-      <c r="B45" s="36"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="26"/>
-      <c r="K45" s="86"/>
+      <c r="A45" s="84"/>
+      <c r="B45" s="84"/>
+      <c r="C45" s="84"/>
+      <c r="D45" s="84"/>
+      <c r="E45" s="84"/>
+      <c r="F45" s="85"/>
+      <c r="G45" s="85"/>
+      <c r="H45" s="85"/>
+      <c r="I45" s="85"/>
+      <c r="J45" s="85"/>
+      <c r="K45" s="83"/>
       <c r="L45" s="7"/>
       <c r="M45" s="2"/>
     </row>
     <row r="46" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="36"/>
-      <c r="B46" s="36"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="86"/>
+      <c r="A46" s="84"/>
+      <c r="B46" s="84"/>
+      <c r="C46" s="84"/>
+      <c r="D46" s="84"/>
+      <c r="E46" s="84"/>
+      <c r="F46" s="85"/>
+      <c r="G46" s="85"/>
+      <c r="H46" s="85"/>
+      <c r="I46" s="85"/>
+      <c r="J46" s="85"/>
+      <c r="K46" s="83"/>
       <c r="L46" s="7"/>
       <c r="M46" s="2"/>
     </row>
@@ -2541,10 +2558,10 @@
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
-      <c r="E48" s="83" t="s">
+      <c r="E48" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="F48" s="82" t="s">
+      <c r="F48" s="25" t="s">
         <v>33</v>
       </c>
       <c r="G48" s="17"/>
@@ -2693,8 +2710,8 @@
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
-      <c r="E56" s="84"/>
-      <c r="F56" s="85"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="28"/>
       <c r="G56" s="17"/>
       <c r="H56" s="6"/>
       <c r="I56" s="7"/>
@@ -2703,13 +2720,15 @@
       <c r="L56" s="7"/>
       <c r="M56" s="2"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="12"/>
-      <c r="B57" s="12"/>
+      <c r="B57" s="97" t="s">
+        <v>47</v>
+      </c>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
-      <c r="E57" s="84"/>
-      <c r="F57" s="85"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="28"/>
       <c r="G57" s="17"/>
       <c r="H57" s="6"/>
       <c r="I57" s="7"/>
@@ -2720,31 +2739,31 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="12"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="84"/>
-      <c r="F58" s="85"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7"/>
+      <c r="B58" s="98"/>
+      <c r="C58" s="99"/>
+      <c r="D58" s="99"/>
+      <c r="E58" s="99"/>
+      <c r="F58" s="99"/>
+      <c r="G58" s="99"/>
+      <c r="H58" s="99"/>
+      <c r="I58" s="99"/>
+      <c r="J58" s="100"/>
+      <c r="K58" s="12"/>
       <c r="L58" s="7"/>
       <c r="M58" s="2"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="12"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="84"/>
-      <c r="F59" s="85"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="7"/>
+      <c r="B59" s="101"/>
+      <c r="C59" s="102"/>
+      <c r="D59" s="102"/>
+      <c r="E59" s="102"/>
+      <c r="F59" s="102"/>
+      <c r="G59" s="102"/>
+      <c r="H59" s="102"/>
+      <c r="I59" s="102"/>
+      <c r="J59" s="103"/>
+      <c r="K59" s="12"/>
       <c r="L59" s="7"/>
       <c r="M59" s="2"/>
     </row>
@@ -2753,8 +2772,8 @@
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
-      <c r="E60" s="84"/>
-      <c r="F60" s="85"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="28"/>
       <c r="G60" s="17"/>
       <c r="H60" s="6"/>
       <c r="I60" s="7"/>
@@ -2772,18 +2791,18 @@
       <c r="L61" s="5"/>
     </row>
     <row r="62" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="56" t="s">
+      <c r="A62" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B62" s="56"/>
-      <c r="C62" s="56"/>
-      <c r="D62" s="56"/>
-      <c r="E62" s="56"/>
-      <c r="F62" s="56"/>
-      <c r="G62" s="56"/>
-      <c r="H62" s="56"/>
-      <c r="I62" s="56"/>
-      <c r="J62" s="56"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="33"/>
+      <c r="I62" s="33"/>
+      <c r="J62" s="33"/>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
     </row>
@@ -2792,96 +2811,96 @@
       <c r="I63" s="1"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B64" s="57" t="s">
+      <c r="B64" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C64" s="58"/>
-      <c r="D64" s="55">
+      <c r="C64" s="37"/>
+      <c r="D64" s="35">
         <v>3</v>
       </c>
-      <c r="E64" s="55"/>
+      <c r="E64" s="35"/>
       <c r="F64" s="3"/>
-      <c r="G64" s="49" t="s">
+      <c r="G64" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="H64" s="50"/>
-      <c r="I64" s="49" t="s">
+      <c r="H64" s="90"/>
+      <c r="I64" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="J64" s="50"/>
+      <c r="J64" s="90"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B65" s="57" t="s">
+      <c r="B65" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C65" s="58"/>
-      <c r="D65" s="55">
+      <c r="C65" s="37"/>
+      <c r="D65" s="35">
         <v>2</v>
       </c>
-      <c r="E65" s="55"/>
+      <c r="E65" s="35"/>
       <c r="F65" s="3"/>
-      <c r="G65" s="51" t="s">
+      <c r="G65" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="H65" s="52"/>
-      <c r="I65" s="59" t="s">
+      <c r="H65" s="92"/>
+      <c r="I65" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="J65" s="60"/>
+      <c r="J65" s="39"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B66" s="57" t="s">
+      <c r="B66" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C66" s="58"/>
-      <c r="D66" s="55"/>
-      <c r="E66" s="55"/>
+      <c r="C66" s="37"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="35"/>
       <c r="F66" s="3"/>
-      <c r="G66" s="51" t="s">
+      <c r="G66" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="H66" s="52"/>
-      <c r="I66" s="61" t="s">
+      <c r="H66" s="92"/>
+      <c r="I66" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="J66" s="62"/>
+      <c r="J66" s="41"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B67" s="57" t="s">
+      <c r="B67" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C67" s="58"/>
-      <c r="D67" s="55"/>
-      <c r="E67" s="55"/>
+      <c r="C67" s="37"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="35"/>
       <c r="F67" s="3"/>
-      <c r="G67" s="51" t="s">
+      <c r="G67" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="H67" s="52"/>
-      <c r="I67" s="63" t="s">
+      <c r="H67" s="92"/>
+      <c r="I67" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="J67" s="64"/>
+      <c r="J67" s="96"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G68" s="53" t="s">
+      <c r="G68" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="H68" s="54"/>
-      <c r="I68" s="65" t="s">
+      <c r="H68" s="94"/>
+      <c r="I68" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="J68" s="66"/>
+      <c r="J68" s="47"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G69" s="53">
+      <c r="G69" s="93">
         <v>5</v>
       </c>
-      <c r="H69" s="54"/>
-      <c r="I69" s="47" t="s">
+      <c r="H69" s="94"/>
+      <c r="I69" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="J69" s="48"/>
+      <c r="J69" s="88"/>
     </row>
     <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
@@ -2913,35 +2932,35 @@
     </row>
     <row r="75" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3"/>
-      <c r="B75" s="80"/>
-      <c r="C75" s="80"/>
-      <c r="D75" s="80"/>
-      <c r="E75" s="80"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="23"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
-      <c r="H75" s="78"/>
-      <c r="I75" s="78"/>
-      <c r="J75" s="78"/>
+      <c r="H75" s="29"/>
+      <c r="I75" s="29"/>
+      <c r="J75" s="29"/>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
-      <c r="B76" s="79" t="s">
+      <c r="B76" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C76" s="79"/>
-      <c r="D76" s="79"/>
-      <c r="E76" s="79"/>
-      <c r="F76" s="81"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="30"/>
+      <c r="E76" s="30"/>
+      <c r="F76" s="24"/>
       <c r="G76" s="3"/>
-      <c r="H76" s="79" t="s">
+      <c r="H76" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="I76" s="79"/>
-      <c r="J76" s="79"/>
-      <c r="K76" s="81"/>
-      <c r="L76" s="81"/>
+      <c r="I76" s="30"/>
+      <c r="J76" s="30"/>
+      <c r="K76" s="24"/>
+      <c r="L76" s="24"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
@@ -2986,12 +3005,12 @@
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
-      <c r="D82" s="46"/>
-      <c r="E82" s="46"/>
-      <c r="F82" s="46"/>
-      <c r="G82" s="46"/>
-      <c r="H82" s="46"/>
-      <c r="I82" s="46"/>
+      <c r="D82" s="86"/>
+      <c r="E82" s="86"/>
+      <c r="F82" s="86"/>
+      <c r="G82" s="86"/>
+      <c r="H82" s="86"/>
+      <c r="I82" s="86"/>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="3"/>
@@ -3025,18 +3044,25 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
-  <mergeCells count="55">
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
+  <mergeCells count="56">
+    <mergeCell ref="B58:J59"/>
+    <mergeCell ref="K43:K46"/>
+    <mergeCell ref="A43:E46"/>
+    <mergeCell ref="F43:J46"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="I68:J68"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="B67:C67"/>
@@ -3053,6 +3079,17 @@
     <mergeCell ref="A34:E34"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I6:J6"/>
     <mergeCell ref="A9:J9"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="A62:J62"/>
@@ -3064,23 +3101,6 @@
     <mergeCell ref="I65:J65"/>
     <mergeCell ref="I66:J66"/>
     <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="K43:K46"/>
-    <mergeCell ref="A43:E46"/>
-    <mergeCell ref="F43:J46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/protected/modules/excel/templates/EvaluaciondeDesempenoTemplate2.xlsx
+++ b/protected/modules/excel/templates/EvaluaciondeDesempenoTemplate2.xlsx
@@ -14,9 +14,6 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$77</definedName>
-  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -177,7 +174,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,28 +268,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <sz val="8"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -332,6 +315,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,15 +557,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
@@ -644,26 +630,163 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -671,106 +794,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -783,116 +816,56 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1286,11 +1259,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="211529568"/>
-        <c:axId val="211529960"/>
+        <c:axId val="162462536"/>
+        <c:axId val="166121040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="211529568"/>
+        <c:axId val="162462536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1300,7 +1273,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="211529960"/>
+        <c:crossAx val="166121040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1308,7 +1281,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="211529960"/>
+        <c:axId val="166121040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1395,7 +1368,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211529568"/>
+        <c:crossAx val="162462536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1591,11 +1564,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="211530744"/>
-        <c:axId val="211531136"/>
+        <c:axId val="165475328"/>
+        <c:axId val="165475712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="211530744"/>
+        <c:axId val="165475328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1605,7 +1578,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="211531136"/>
+        <c:crossAx val="165475712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1613,7 +1586,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="211531136"/>
+        <c:axId val="165475712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1700,7 +1673,7 @@
             <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211530744"/>
+        <c:crossAx val="165475328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1747,6 +1720,973 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CR"/>
+              <a:t>Nivel de Talento</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$70:$P$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$71:$P$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:axId val="180297312"/>
+        <c:axId val="180165784"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="180297312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="180165784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="180165784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="180297312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1810,6 +2750,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1114425</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2082,10 +3052,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M85"/>
+  <dimension ref="A1:P102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58:J59"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L82" sqref="L82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2106,966 +3076,1266 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="9"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="8"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="10"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="9"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="43"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="44" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="44" t="s">
+      <c r="G5" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="44"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="44" t="s">
+      <c r="G6" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="44"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="96"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K11" s="11"/>
-      <c r="L11" s="11">
+      <c r="K11" s="10"/>
+      <c r="L11" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K12" s="11"/>
-      <c r="L12" s="11">
+      <c r="K12" s="10"/>
+      <c r="L12" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K13" s="11"/>
-      <c r="L13" s="11">
+      <c r="K13" s="10"/>
+      <c r="L13" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K14" s="11"/>
-      <c r="L14" s="11">
+      <c r="K14" s="10"/>
+      <c r="L14" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K17" s="11" t="s">
+      <c r="K17" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="L17" s="11">
+      <c r="L17" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K18" s="11" t="s">
+      <c r="K18" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="L18" s="11">
+      <c r="L18" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K19" s="11" t="s">
+      <c r="K19" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="L19" s="11">
+      <c r="L19" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K20" s="11" t="s">
+      <c r="K20" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L20" s="11">
+      <c r="L20" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K21" s="11" t="s">
+      <c r="K21" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="L21" s="11">
+      <c r="L21" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K22" s="11" t="s">
+      <c r="K22" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="L22" s="11">
+      <c r="L22" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K23" s="11" t="s">
+      <c r="K23" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L23" s="11">
+      <c r="L23" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K24" s="11" t="s">
+      <c r="K24" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="L24" s="11">
+      <c r="L24" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
       <c r="M32" s="2"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
       <c r="M33" s="2"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="49" t="s">
+      <c r="A34" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49" t="s">
+      <c r="B34" s="80"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="22" t="s">
+      <c r="G34" s="80"/>
+      <c r="H34" s="80"/>
+      <c r="I34" s="80"/>
+      <c r="J34" s="80"/>
+      <c r="K34" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="L34" s="7"/>
+      <c r="L34" s="6"/>
       <c r="M34" s="2"/>
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="50" t="s">
+      <c r="A35" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="51"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="60"/>
-      <c r="I35" s="60"/>
-      <c r="J35" s="61"/>
-      <c r="K35" s="68">
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="81">
         <v>2</v>
       </c>
-      <c r="L35" s="7"/>
+      <c r="L35" s="6"/>
       <c r="M35" s="2"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="53"/>
-      <c r="B36" s="54"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="63"/>
-      <c r="H36" s="63"/>
-      <c r="I36" s="63"/>
-      <c r="J36" s="64"/>
-      <c r="K36" s="69"/>
-      <c r="L36" s="7"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="48"/>
+      <c r="K36" s="82"/>
+      <c r="L36" s="6"/>
       <c r="M36" s="2"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="53"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="63"/>
-      <c r="H37" s="63"/>
-      <c r="I37" s="63"/>
-      <c r="J37" s="64"/>
-      <c r="K37" s="69"/>
-      <c r="L37" s="7"/>
+      <c r="A37" s="37"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="82"/>
+      <c r="L37" s="6"/>
       <c r="M37" s="2"/>
     </row>
     <row r="38" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="56"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="66"/>
-      <c r="H38" s="66"/>
-      <c r="I38" s="66"/>
-      <c r="J38" s="67"/>
-      <c r="K38" s="70"/>
-      <c r="L38" s="7"/>
+      <c r="A38" s="40"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="83"/>
+      <c r="L38" s="6"/>
       <c r="M38" s="2"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="71"/>
-      <c r="B39" s="72"/>
-      <c r="C39" s="72"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="73"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="60"/>
-      <c r="H39" s="60"/>
-      <c r="I39" s="60"/>
-      <c r="J39" s="61"/>
-      <c r="K39" s="80"/>
-      <c r="L39" s="7"/>
+      <c r="A39" s="84"/>
+      <c r="B39" s="85"/>
+      <c r="C39" s="85"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="86"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="6"/>
       <c r="M39" s="2"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="74"/>
-      <c r="B40" s="75"/>
-      <c r="C40" s="75"/>
-      <c r="D40" s="75"/>
-      <c r="E40" s="76"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="63"/>
-      <c r="H40" s="63"/>
-      <c r="I40" s="63"/>
-      <c r="J40" s="64"/>
-      <c r="K40" s="81"/>
-      <c r="L40" s="7"/>
+      <c r="A40" s="87"/>
+      <c r="B40" s="88"/>
+      <c r="C40" s="88"/>
+      <c r="D40" s="88"/>
+      <c r="E40" s="89"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="48"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="6"/>
       <c r="M40" s="2"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="74"/>
-      <c r="B41" s="75"/>
-      <c r="C41" s="75"/>
-      <c r="D41" s="75"/>
-      <c r="E41" s="76"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="63"/>
-      <c r="H41" s="63"/>
-      <c r="I41" s="63"/>
-      <c r="J41" s="64"/>
-      <c r="K41" s="81"/>
-      <c r="L41" s="7"/>
+      <c r="A41" s="87"/>
+      <c r="B41" s="88"/>
+      <c r="C41" s="88"/>
+      <c r="D41" s="88"/>
+      <c r="E41" s="89"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="48"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="6"/>
       <c r="M41" s="2"/>
     </row>
     <row r="42" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="77"/>
-      <c r="B42" s="78"/>
-      <c r="C42" s="78"/>
-      <c r="D42" s="78"/>
-      <c r="E42" s="79"/>
-      <c r="F42" s="65"/>
-      <c r="G42" s="66"/>
-      <c r="H42" s="66"/>
-      <c r="I42" s="66"/>
-      <c r="J42" s="67"/>
-      <c r="K42" s="82"/>
-      <c r="L42" s="7"/>
+      <c r="A42" s="90"/>
+      <c r="B42" s="91"/>
+      <c r="C42" s="91"/>
+      <c r="D42" s="91"/>
+      <c r="E42" s="92"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="51"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="6"/>
       <c r="M42" s="2"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="84"/>
-      <c r="B43" s="84"/>
-      <c r="C43" s="84"/>
-      <c r="D43" s="84"/>
-      <c r="E43" s="84"/>
-      <c r="F43" s="85"/>
-      <c r="G43" s="85"/>
-      <c r="H43" s="85"/>
-      <c r="I43" s="85"/>
-      <c r="J43" s="85"/>
-      <c r="K43" s="83"/>
-      <c r="L43" s="7"/>
+      <c r="A43" s="34"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="45"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="6"/>
       <c r="M43" s="2"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="84"/>
-      <c r="B44" s="84"/>
-      <c r="C44" s="84"/>
-      <c r="D44" s="84"/>
-      <c r="E44" s="84"/>
-      <c r="F44" s="85"/>
-      <c r="G44" s="85"/>
-      <c r="H44" s="85"/>
-      <c r="I44" s="85"/>
-      <c r="J44" s="85"/>
-      <c r="K44" s="83"/>
-      <c r="L44" s="7"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="48"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="6"/>
       <c r="M44" s="2"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="84"/>
-      <c r="B45" s="84"/>
-      <c r="C45" s="84"/>
-      <c r="D45" s="84"/>
-      <c r="E45" s="84"/>
-      <c r="F45" s="85"/>
-      <c r="G45" s="85"/>
-      <c r="H45" s="85"/>
-      <c r="I45" s="85"/>
-      <c r="J45" s="85"/>
-      <c r="K45" s="83"/>
-      <c r="L45" s="7"/>
+      <c r="A45" s="37"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="48"/>
+      <c r="K45" s="32"/>
+      <c r="L45" s="6"/>
       <c r="M45" s="2"/>
     </row>
     <row r="46" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="84"/>
-      <c r="B46" s="84"/>
-      <c r="C46" s="84"/>
-      <c r="D46" s="84"/>
-      <c r="E46" s="84"/>
-      <c r="F46" s="85"/>
-      <c r="G46" s="85"/>
-      <c r="H46" s="85"/>
-      <c r="I46" s="85"/>
-      <c r="J46" s="85"/>
-      <c r="K46" s="83"/>
-      <c r="L46" s="7"/>
+      <c r="A46" s="40"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="51"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="6"/>
       <c r="M46" s="2"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="15"/>
-      <c r="L47" s="7"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="6"/>
       <c r="M47" s="2"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="26" t="s">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F48" s="25" t="s">
+      <c r="F48" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="G48" s="17"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="15"/>
-      <c r="L48" s="7"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="6"/>
       <c r="M48" s="2"/>
     </row>
-    <row r="49" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="19" t="s">
+    <row r="49" spans="1:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F49" s="20">
+      <c r="F49" s="19">
         <v>2</v>
       </c>
-      <c r="G49" s="17"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="15"/>
-      <c r="L49" s="7"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="6"/>
       <c r="M49" s="2"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="13"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="19" t="s">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F50" s="20">
+      <c r="F50" s="19">
         <v>4</v>
       </c>
-      <c r="G50" s="17"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="15"/>
-      <c r="L50" s="7"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="6"/>
       <c r="M50" s="2"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="13"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="19" t="s">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="12"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F51" s="20">
+      <c r="F51" s="19">
         <v>4</v>
       </c>
-      <c r="G51" s="17"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="15"/>
-      <c r="L51" s="7"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="6"/>
       <c r="M51" s="2"/>
     </row>
-    <row r="52" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="13"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="19" t="s">
+    <row r="52" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F52" s="20">
+      <c r="F52" s="19">
         <v>3</v>
       </c>
-      <c r="G52" s="17"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14"/>
-      <c r="K52" s="15"/>
-      <c r="L52" s="7"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="6"/>
       <c r="M52" s="2"/>
     </row>
-    <row r="53" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="13"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="19" t="s">
+    <row r="53" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="12"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F53" s="20">
+      <c r="F53" s="19">
         <v>5</v>
       </c>
-      <c r="G53" s="17"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="15"/>
-      <c r="L53" s="7"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="6"/>
       <c r="M53" s="2"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="13"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="19" t="s">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="12"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F54" s="20">
+      <c r="F54" s="19">
         <v>5</v>
       </c>
-      <c r="G54" s="17"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="15"/>
-      <c r="L54" s="7"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="6"/>
       <c r="M54" s="2"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="12"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="19" t="s">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F55" s="21">
+      <c r="F55" s="20">
         <v>4</v>
       </c>
-      <c r="G55" s="17"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="7"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
       <c r="M55" s="2"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="12"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="7"/>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
       <c r="M56" s="2"/>
     </row>
-    <row r="57" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="12"/>
-      <c r="B57" s="97" t="s">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="2"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="2"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="2"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="2"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="2"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="2"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="2"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="29">
+        <v>5</v>
+      </c>
+      <c r="O64" s="30"/>
+      <c r="P64" s="30"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="29">
+        <v>4</v>
+      </c>
+      <c r="O65" s="30"/>
+      <c r="P65" s="30"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="29">
+        <v>3</v>
+      </c>
+      <c r="O66" s="30"/>
+      <c r="P66" s="30"/>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="29">
+        <v>2</v>
+      </c>
+      <c r="O67" s="30"/>
+      <c r="P67" s="30"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="29">
+        <v>1</v>
+      </c>
+      <c r="O68" s="30"/>
+      <c r="P68" s="30"/>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="29">
+        <v>0</v>
+      </c>
+      <c r="O69" s="30"/>
+      <c r="P69" s="30"/>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="29"/>
+      <c r="O70" s="30">
+        <v>2</v>
+      </c>
+      <c r="P70" s="30"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="29"/>
+      <c r="O71" s="30"/>
+      <c r="P71" s="30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="26"/>
+      <c r="F72" s="27"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6"/>
+      <c r="M72" s="2"/>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="2"/>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6"/>
+      <c r="M74" s="2"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="26"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="2"/>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="2"/>
+    </row>
+    <row r="77" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="7"/>
+      <c r="B77" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
-      <c r="L57" s="7"/>
-      <c r="M57" s="2"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="12"/>
-      <c r="B58" s="98"/>
-      <c r="C58" s="99"/>
-      <c r="D58" s="99"/>
-      <c r="E58" s="99"/>
-      <c r="F58" s="99"/>
-      <c r="G58" s="99"/>
-      <c r="H58" s="99"/>
-      <c r="I58" s="99"/>
-      <c r="J58" s="100"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="7"/>
-      <c r="M58" s="2"/>
-    </row>
-    <row r="59" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="12"/>
-      <c r="B59" s="101"/>
-      <c r="C59" s="102"/>
-      <c r="D59" s="102"/>
-      <c r="E59" s="102"/>
-      <c r="F59" s="102"/>
-      <c r="G59" s="102"/>
-      <c r="H59" s="102"/>
-      <c r="I59" s="102"/>
-      <c r="J59" s="103"/>
-      <c r="K59" s="12"/>
-      <c r="L59" s="7"/>
-      <c r="M59" s="2"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="8"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
-      <c r="L60" s="7"/>
-      <c r="M60" s="2"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
-      <c r="L61" s="5"/>
-    </row>
-    <row r="62" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="33" t="s">
+      <c r="C77" s="28"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="27"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="2"/>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A78" s="7"/>
+      <c r="B78" s="52"/>
+      <c r="C78" s="53"/>
+      <c r="D78" s="53"/>
+      <c r="E78" s="53"/>
+      <c r="F78" s="53"/>
+      <c r="G78" s="53"/>
+      <c r="H78" s="53"/>
+      <c r="I78" s="53"/>
+      <c r="J78" s="54"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="2"/>
+    </row>
+    <row r="79" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="7"/>
+      <c r="B79" s="55"/>
+      <c r="C79" s="56"/>
+      <c r="D79" s="56"/>
+      <c r="E79" s="56"/>
+      <c r="F79" s="56"/>
+      <c r="G79" s="56"/>
+      <c r="H79" s="56"/>
+      <c r="I79" s="56"/>
+      <c r="J79" s="57"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="6"/>
+      <c r="M79" s="2"/>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="26"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="6"/>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="B62" s="33"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="33"/>
-      <c r="G62" s="33"/>
-      <c r="H62" s="33"/>
-      <c r="I62" s="33"/>
-      <c r="J62" s="33"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B64" s="36" t="s">
+      <c r="B81" s="96"/>
+      <c r="C81" s="96"/>
+      <c r="D81" s="96"/>
+      <c r="E81" s="96"/>
+      <c r="F81" s="96"/>
+      <c r="G81" s="96"/>
+      <c r="H81" s="96"/>
+      <c r="I81" s="96"/>
+      <c r="J81" s="96"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B83" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C64" s="37"/>
-      <c r="D64" s="35">
+      <c r="C83" s="77"/>
+      <c r="D83" s="67">
+        <v>2</v>
+      </c>
+      <c r="E83" s="67"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="H83" s="62"/>
+      <c r="I83" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="J83" s="62"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B84" s="76" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" s="77"/>
+      <c r="D84" s="67">
         <v>3</v>
       </c>
-      <c r="E64" s="35"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="89" t="s">
-        <v>12</v>
-      </c>
-      <c r="H64" s="90"/>
-      <c r="I64" s="89" t="s">
-        <v>13</v>
-      </c>
-      <c r="J64" s="90"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B65" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="C65" s="37"/>
-      <c r="D65" s="35">
-        <v>2</v>
-      </c>
-      <c r="E65" s="35"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="91" t="s">
+      <c r="E84" s="67"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="H65" s="92"/>
-      <c r="I65" s="38" t="s">
+      <c r="H84" s="64"/>
+      <c r="I84" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="J65" s="39"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B66" s="36" t="s">
+      <c r="J84" s="98"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B85" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="C66" s="37"/>
-      <c r="D66" s="35"/>
-      <c r="E66" s="35"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="91" t="s">
+      <c r="C85" s="77"/>
+      <c r="D85" s="67"/>
+      <c r="E85" s="67"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="H66" s="92"/>
-      <c r="I66" s="40" t="s">
+      <c r="H85" s="64"/>
+      <c r="I85" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="J66" s="41"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B67" s="36" t="s">
+      <c r="J85" s="100"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B86" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="C67" s="37"/>
-      <c r="D67" s="35"/>
-      <c r="E67" s="35"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="91" t="s">
+      <c r="C86" s="77"/>
+      <c r="D86" s="67"/>
+      <c r="E86" s="67"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="H67" s="92"/>
-      <c r="I67" s="95" t="s">
+      <c r="H86" s="64"/>
+      <c r="I86" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="J67" s="96"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G68" s="93" t="s">
+      <c r="J86" s="69"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G87" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="H68" s="94"/>
-      <c r="I68" s="46" t="s">
+      <c r="H87" s="66"/>
+      <c r="I87" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="J68" s="47"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G69" s="93">
+      <c r="J87" s="71"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G88" s="65">
         <v>5</v>
       </c>
-      <c r="H69" s="94"/>
-      <c r="I69" s="87" t="s">
+      <c r="H88" s="66"/>
+      <c r="I88" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="J69" s="88"/>
-    </row>
-    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="4"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
-      <c r="K73" s="4"/>
-      <c r="L73" s="4"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="3"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="29"/>
-      <c r="I75" s="29"/>
-      <c r="J75" s="29"/>
-      <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="3"/>
-      <c r="B76" s="30" t="s">
+      <c r="J88" s="60"/>
+    </row>
+    <row r="92" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="3"/>
+      <c r="B92" s="22"/>
+      <c r="C92" s="22"/>
+      <c r="D92" s="22"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="72"/>
+      <c r="I92" s="72"/>
+      <c r="J92" s="72"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="3"/>
+      <c r="B93" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="C76" s="30"/>
-      <c r="D76" s="30"/>
-      <c r="E76" s="30"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="30" t="s">
+      <c r="C93" s="73"/>
+      <c r="D93" s="73"/>
+      <c r="E93" s="73"/>
+      <c r="F93" s="23"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="I76" s="30"/>
-      <c r="J76" s="30"/>
-      <c r="K76" s="24"/>
-      <c r="L76" s="24"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
-      <c r="L78" s="3"/>
-    </row>
-    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="4"/>
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
-      <c r="J80" s="4"/>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="86"/>
-      <c r="E82" s="86"/>
-      <c r="F82" s="86"/>
-      <c r="G82" s="86"/>
-      <c r="H82" s="86"/>
-      <c r="I82" s="86"/>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
+      <c r="I93" s="73"/>
+      <c r="J93" s="73"/>
+      <c r="K93" s="23"/>
+      <c r="L93" s="23"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3"/>
+      <c r="K95" s="3"/>
+      <c r="L95" s="3"/>
+    </row>
+    <row r="97" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="58"/>
+      <c r="E99" s="58"/>
+      <c r="F99" s="58"/>
+      <c r="G99" s="58"/>
+      <c r="H99" s="58"/>
+      <c r="I99" s="58"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="3"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+      <c r="I102" s="3"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="56">
-    <mergeCell ref="B58:J59"/>
-    <mergeCell ref="K43:K46"/>
-    <mergeCell ref="A43:E46"/>
-    <mergeCell ref="F43:J46"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="A81:J81"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="G4:H4"/>
@@ -3081,26 +4351,30 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="H92:J92"/>
+    <mergeCell ref="H93:J93"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A62:J62"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="K43:K46"/>
+    <mergeCell ref="A43:E46"/>
+    <mergeCell ref="F43:J46"/>
+    <mergeCell ref="B78:J79"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="I88:J88"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="G88:H88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/protected/modules/excel/templates/EvaluaciondeDesempenoTemplate2.xlsx
+++ b/protected/modules/excel/templates/EvaluaciondeDesempenoTemplate2.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -162,16 +162,13 @@
     <t>Fecha de Registro de Compromisos:</t>
   </si>
   <si>
-    <t>Impreso:</t>
+    <t>Comentarios</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-  </numFmts>
   <fonts count="14">
     <font>
       <sz val="11"/>
@@ -266,8 +263,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="7"/>
-      <color theme="1"/>
+      <sz val="8"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -323,7 +320,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -507,19 +504,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
@@ -587,28 +625,85 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -652,11 +747,23 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -674,42 +781,6 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -722,60 +793,36 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -791,8 +838,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -846,7 +914,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1154,11 +1221,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="103822848"/>
-        <c:axId val="103824384"/>
+        <c:axId val="91355392"/>
+        <c:axId val="91693056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="103822848"/>
+        <c:axId val="91355392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1167,14 +1234,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="103824384"/>
+        <c:crossAx val="91693056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103824384"/>
+        <c:axId val="91693056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1219,7 +1286,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1258,7 +1324,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103822848"/>
+        <c:crossAx val="91355392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1300,7 +1366,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1341,7 +1407,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1432,11 +1497,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="103848960"/>
-        <c:axId val="103863040"/>
+        <c:axId val="91721728"/>
+        <c:axId val="91723264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="103848960"/>
+        <c:axId val="91721728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1445,14 +1510,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="103863040"/>
+        <c:crossAx val="91723264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103863040"/>
+        <c:axId val="91723264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1497,7 +1562,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1536,7 +1600,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103848960"/>
+        <c:crossAx val="91721728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1578,10 +1642,894 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-ES"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CR"/>
+              <a:t>Nivel de Talento</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$70:$P$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$71:$P$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="0"/>
+        <c:axId val="103159680"/>
+        <c:axId val="103161216"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="103159680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="103161216"/>
+        <c:crosses val="autoZero"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="103161216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="103159680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1645,6 +2593,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1114425</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1917,10 +2895,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M85"/>
+  <dimension ref="A1:P102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:K5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78:J79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1941,976 +2919,1266 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="9"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="8"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="10"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="9"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="50" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="50"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="50" t="s">
+      <c r="C5" s="68"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="50"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:12" ht="30" customHeight="1">
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="81"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="51" t="s">
+      <c r="G6" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="51"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:12">
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="85"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
     </row>
     <row r="9" spans="1:12" ht="15.75">
-      <c r="A9" s="86" t="s">
+      <c r="A9" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="86"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="90"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="K11" s="11"/>
-      <c r="L11" s="11">
+      <c r="K11" s="10"/>
+      <c r="L11" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="K12" s="11"/>
-      <c r="L12" s="11">
+      <c r="K12" s="10"/>
+      <c r="L12" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="K13" s="11"/>
-      <c r="L13" s="11">
+      <c r="K13" s="10"/>
+      <c r="L13" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="K14" s="11"/>
-      <c r="L14" s="11">
+      <c r="K14" s="10"/>
+      <c r="L14" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="K17" s="11" t="s">
+      <c r="K17" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="L17" s="11">
+      <c r="L17" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="K18" s="11" t="s">
+      <c r="K18" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="L18" s="11">
+      <c r="L18" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="K19" s="11" t="s">
+      <c r="K19" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="L19" s="11">
+      <c r="L19" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="K20" s="11" t="s">
+      <c r="K20" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L20" s="11">
+      <c r="L20" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="K21" s="11" t="s">
+      <c r="K21" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="L21" s="11">
+      <c r="L21" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="K22" s="11" t="s">
+      <c r="K22" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="L22" s="11">
+      <c r="L22" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="K23" s="11" t="s">
+      <c r="K23" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L23" s="11">
+      <c r="L23" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="K24" s="11" t="s">
+      <c r="K24" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="L24" s="11">
+      <c r="L24" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
       <c r="M32" s="2"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
       <c r="M33" s="2"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="56" t="s">
+      <c r="A34" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56" t="s">
+      <c r="B34" s="76"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="22" t="s">
+      <c r="G34" s="76"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="76"/>
+      <c r="J34" s="76"/>
+      <c r="K34" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="L34" s="7"/>
+      <c r="L34" s="6"/>
       <c r="M34" s="2"/>
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1">
-      <c r="A35" s="57" t="s">
+      <c r="A35" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="58"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="58"/>
-      <c r="J35" s="59"/>
-      <c r="K35" s="66">
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="77">
         <v>2</v>
       </c>
-      <c r="L35" s="7"/>
+      <c r="L35" s="6"/>
       <c r="M35" s="2"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="60"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="61"/>
-      <c r="J36" s="62"/>
-      <c r="K36" s="67"/>
-      <c r="L36" s="7"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="48"/>
+      <c r="K36" s="78"/>
+      <c r="L36" s="6"/>
       <c r="M36" s="2"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="60"/>
-      <c r="B37" s="61"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="61"/>
-      <c r="J37" s="62"/>
-      <c r="K37" s="67"/>
-      <c r="L37" s="7"/>
+      <c r="A37" s="37"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="78"/>
+      <c r="L37" s="6"/>
       <c r="M37" s="2"/>
     </row>
     <row r="38" spans="1:13" ht="24.75" customHeight="1">
-      <c r="A38" s="63"/>
-      <c r="B38" s="64"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="63"/>
-      <c r="G38" s="64"/>
-      <c r="H38" s="64"/>
-      <c r="I38" s="64"/>
-      <c r="J38" s="65"/>
-      <c r="K38" s="68"/>
-      <c r="L38" s="7"/>
+      <c r="A38" s="40"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="79"/>
+      <c r="L38" s="6"/>
       <c r="M38" s="2"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="69"/>
-      <c r="B39" s="70"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="71"/>
-      <c r="F39" s="69"/>
-      <c r="G39" s="70"/>
-      <c r="H39" s="70"/>
-      <c r="I39" s="70"/>
-      <c r="J39" s="71"/>
-      <c r="K39" s="78"/>
-      <c r="L39" s="7"/>
+      <c r="A39" s="80"/>
+      <c r="B39" s="81"/>
+      <c r="C39" s="81"/>
+      <c r="D39" s="81"/>
+      <c r="E39" s="82"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="6"/>
       <c r="M39" s="2"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="72"/>
-      <c r="B40" s="73"/>
-      <c r="C40" s="73"/>
-      <c r="D40" s="73"/>
-      <c r="E40" s="74"/>
-      <c r="F40" s="72"/>
-      <c r="G40" s="73"/>
-      <c r="H40" s="73"/>
-      <c r="I40" s="73"/>
-      <c r="J40" s="74"/>
-      <c r="K40" s="79"/>
-      <c r="L40" s="7"/>
+      <c r="A40" s="83"/>
+      <c r="B40" s="84"/>
+      <c r="C40" s="84"/>
+      <c r="D40" s="84"/>
+      <c r="E40" s="85"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="48"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="6"/>
       <c r="M40" s="2"/>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="72"/>
-      <c r="B41" s="73"/>
-      <c r="C41" s="73"/>
-      <c r="D41" s="73"/>
-      <c r="E41" s="74"/>
-      <c r="F41" s="72"/>
-      <c r="G41" s="73"/>
-      <c r="H41" s="73"/>
-      <c r="I41" s="73"/>
-      <c r="J41" s="74"/>
-      <c r="K41" s="79"/>
-      <c r="L41" s="7"/>
+      <c r="A41" s="83"/>
+      <c r="B41" s="84"/>
+      <c r="C41" s="84"/>
+      <c r="D41" s="84"/>
+      <c r="E41" s="85"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="48"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="6"/>
       <c r="M41" s="2"/>
     </row>
     <row r="42" spans="1:13" ht="25.5" customHeight="1">
-      <c r="A42" s="75"/>
-      <c r="B42" s="76"/>
-      <c r="C42" s="76"/>
-      <c r="D42" s="76"/>
-      <c r="E42" s="77"/>
-      <c r="F42" s="75"/>
-      <c r="G42" s="76"/>
-      <c r="H42" s="76"/>
-      <c r="I42" s="76"/>
-      <c r="J42" s="77"/>
-      <c r="K42" s="80"/>
-      <c r="L42" s="7"/>
+      <c r="A42" s="86"/>
+      <c r="B42" s="87"/>
+      <c r="C42" s="87"/>
+      <c r="D42" s="87"/>
+      <c r="E42" s="88"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="51"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="6"/>
       <c r="M42" s="2"/>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="35"/>
+      <c r="A43" s="34"/>
       <c r="B43" s="35"/>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="35"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="7"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="45"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="6"/>
       <c r="M43" s="2"/>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="35"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="35"/>
-      <c r="K44" s="34"/>
-      <c r="L44" s="7"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="48"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="6"/>
       <c r="M44" s="2"/>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="35"/>
-      <c r="B45" s="35"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="35"/>
-      <c r="K45" s="34"/>
-      <c r="L45" s="7"/>
+      <c r="A45" s="37"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="48"/>
+      <c r="K45" s="32"/>
+      <c r="L45" s="6"/>
       <c r="M45" s="2"/>
     </row>
     <row r="46" spans="1:13" ht="25.5" customHeight="1">
-      <c r="A46" s="35"/>
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="35"/>
-      <c r="J46" s="35"/>
-      <c r="K46" s="34"/>
-      <c r="L46" s="7"/>
+      <c r="A46" s="40"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="51"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="6"/>
       <c r="M46" s="2"/>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="13"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="15"/>
-      <c r="L47" s="7"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="6"/>
       <c r="M47" s="2"/>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="13"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="26" t="s">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F48" s="25" t="s">
+      <c r="F48" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="G48" s="17"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="15"/>
-      <c r="L48" s="7"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="6"/>
       <c r="M48" s="2"/>
     </row>
-    <row r="49" spans="1:13" ht="37.5" customHeight="1">
-      <c r="A49" s="13"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="19" t="s">
+    <row r="49" spans="1:16" ht="37.5" customHeight="1">
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F49" s="20">
+      <c r="F49" s="19">
         <v>2</v>
       </c>
-      <c r="G49" s="17"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="15"/>
-      <c r="L49" s="7"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="6"/>
       <c r="M49" s="2"/>
     </row>
-    <row r="50" spans="1:13">
-      <c r="A50" s="13"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="19" t="s">
+    <row r="50" spans="1:16">
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F50" s="20">
+      <c r="F50" s="19">
         <v>4</v>
       </c>
-      <c r="G50" s="17"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="15"/>
-      <c r="L50" s="7"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="6"/>
       <c r="M50" s="2"/>
     </row>
-    <row r="51" spans="1:13">
-      <c r="A51" s="13"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="19" t="s">
+    <row r="51" spans="1:16">
+      <c r="A51" s="12"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F51" s="20">
+      <c r="F51" s="19">
         <v>4</v>
       </c>
-      <c r="G51" s="17"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="15"/>
-      <c r="L51" s="7"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="6"/>
       <c r="M51" s="2"/>
     </row>
-    <row r="52" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A52" s="13"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="19" t="s">
+    <row r="52" spans="1:16" ht="18.75" customHeight="1">
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F52" s="20">
+      <c r="F52" s="19">
         <v>3</v>
       </c>
-      <c r="G52" s="17"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14"/>
-      <c r="K52" s="15"/>
-      <c r="L52" s="7"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="6"/>
       <c r="M52" s="2"/>
     </row>
-    <row r="53" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A53" s="13"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="19" t="s">
+    <row r="53" spans="1:16" ht="16.5" customHeight="1">
+      <c r="A53" s="12"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F53" s="20">
+      <c r="F53" s="19">
         <v>5</v>
       </c>
-      <c r="G53" s="17"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="15"/>
-      <c r="L53" s="7"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="6"/>
       <c r="M53" s="2"/>
     </row>
-    <row r="54" spans="1:13">
-      <c r="A54" s="13"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="19" t="s">
+    <row r="54" spans="1:16">
+      <c r="A54" s="12"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F54" s="20">
+      <c r="F54" s="19">
         <v>5</v>
       </c>
-      <c r="G54" s="17"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="15"/>
-      <c r="L54" s="7"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="6"/>
       <c r="M54" s="2"/>
     </row>
-    <row r="55" spans="1:13">
-      <c r="A55" s="12"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="19" t="s">
+    <row r="55" spans="1:16">
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F55" s="21">
+      <c r="F55" s="20">
         <v>4</v>
       </c>
-      <c r="G55" s="17"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="7"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
       <c r="M55" s="2"/>
     </row>
-    <row r="56" spans="1:13">
-      <c r="A56" s="12"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="7"/>
+    <row r="56" spans="1:16">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
       <c r="M56" s="2"/>
     </row>
-    <row r="57" spans="1:13">
-      <c r="A57" s="12"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
-      <c r="L57" s="7"/>
+    <row r="57" spans="1:16">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
       <c r="M57" s="2"/>
     </row>
-    <row r="58" spans="1:13">
-      <c r="A58" s="12"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7"/>
-      <c r="L58" s="7"/>
+    <row r="58" spans="1:16">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
       <c r="M58" s="2"/>
     </row>
-    <row r="59" spans="1:13">
-      <c r="A59" s="12"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="7"/>
-      <c r="L59" s="7"/>
+    <row r="59" spans="1:16">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
       <c r="M59" s="2"/>
     </row>
-    <row r="60" spans="1:13">
-      <c r="A60" s="8"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
-      <c r="L60" s="7"/>
+    <row r="60" spans="1:16">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
       <c r="M60" s="2"/>
     </row>
-    <row r="61" spans="1:13">
-      <c r="G61" s="5"/>
+    <row r="61" spans="1:16">
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="16"/>
       <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
-      <c r="L61" s="5"/>
-    </row>
-    <row r="62" spans="1:13" ht="15.75">
-      <c r="A62" s="86" t="s">
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="2"/>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="2"/>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="2"/>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="29">
+        <v>5</v>
+      </c>
+      <c r="O64" s="30"/>
+      <c r="P64" s="30"/>
+    </row>
+    <row r="65" spans="1:16">
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="29">
+        <v>4</v>
+      </c>
+      <c r="O65" s="30"/>
+      <c r="P65" s="30"/>
+    </row>
+    <row r="66" spans="1:16">
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="29">
+        <v>3</v>
+      </c>
+      <c r="O66" s="30"/>
+      <c r="P66" s="30"/>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="29">
+        <v>2</v>
+      </c>
+      <c r="O67" s="30"/>
+      <c r="P67" s="30"/>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="29">
+        <v>1</v>
+      </c>
+      <c r="O68" s="30"/>
+      <c r="P68" s="30"/>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="29">
+        <v>0</v>
+      </c>
+      <c r="O69" s="30"/>
+      <c r="P69" s="30"/>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="29"/>
+      <c r="O70" s="30">
+        <v>2</v>
+      </c>
+      <c r="P70" s="30"/>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="29"/>
+      <c r="O71" s="30"/>
+      <c r="P71" s="30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="26"/>
+      <c r="F72" s="27"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6"/>
+      <c r="M72" s="2"/>
+    </row>
+    <row r="73" spans="1:16">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="2"/>
+    </row>
+    <row r="74" spans="1:16">
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6"/>
+      <c r="M74" s="2"/>
+    </row>
+    <row r="75" spans="1:16">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="26"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="2"/>
+    </row>
+    <row r="76" spans="1:16">
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="2"/>
+    </row>
+    <row r="77" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A77" s="7"/>
+      <c r="B77" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C77" s="28"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="27"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="2"/>
+    </row>
+    <row r="78" spans="1:16">
+      <c r="A78" s="7"/>
+      <c r="B78" s="95"/>
+      <c r="C78" s="96"/>
+      <c r="D78" s="96"/>
+      <c r="E78" s="96"/>
+      <c r="F78" s="96"/>
+      <c r="G78" s="96"/>
+      <c r="H78" s="96"/>
+      <c r="I78" s="96"/>
+      <c r="J78" s="97"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="2"/>
+    </row>
+    <row r="79" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A79" s="7"/>
+      <c r="B79" s="98"/>
+      <c r="C79" s="99"/>
+      <c r="D79" s="99"/>
+      <c r="E79" s="99"/>
+      <c r="F79" s="99"/>
+      <c r="G79" s="99"/>
+      <c r="H79" s="99"/>
+      <c r="I79" s="99"/>
+      <c r="J79" s="100"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="6"/>
+      <c r="M79" s="2"/>
+    </row>
+    <row r="80" spans="1:16">
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="26"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="6"/>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="1:12" ht="15.75">
+      <c r="A81" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="B62" s="86"/>
-      <c r="C62" s="86"/>
-      <c r="D62" s="86"/>
-      <c r="E62" s="86"/>
-      <c r="F62" s="86"/>
-      <c r="G62" s="86"/>
-      <c r="H62" s="86"/>
-      <c r="I62" s="86"/>
-      <c r="J62" s="86"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
-    </row>
-    <row r="63" spans="1:13">
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="1:13">
-      <c r="B64" s="52" t="s">
+      <c r="B81" s="90"/>
+      <c r="C81" s="90"/>
+      <c r="D81" s="90"/>
+      <c r="E81" s="90"/>
+      <c r="F81" s="90"/>
+      <c r="G81" s="90"/>
+      <c r="H81" s="90"/>
+      <c r="I81" s="90"/>
+      <c r="J81" s="90"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="B83" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C64" s="53"/>
-      <c r="D64" s="45">
+      <c r="C83" s="73"/>
+      <c r="D83" s="61">
+        <v>2</v>
+      </c>
+      <c r="E83" s="61"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="H83" s="56"/>
+      <c r="I83" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J83" s="56"/>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="B84" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" s="73"/>
+      <c r="D84" s="61">
         <v>3</v>
       </c>
-      <c r="E64" s="45"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="H64" s="40"/>
-      <c r="I64" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="J64" s="40"/>
-    </row>
-    <row r="65" spans="1:12">
-      <c r="B65" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="C65" s="53"/>
-      <c r="D65" s="45">
-        <v>2</v>
-      </c>
-      <c r="E65" s="45"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="41" t="s">
+      <c r="E84" s="61"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="H65" s="42"/>
-      <c r="I65" s="87" t="s">
+      <c r="H84" s="58"/>
+      <c r="I84" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="J65" s="88"/>
-    </row>
-    <row r="66" spans="1:12">
-      <c r="B66" s="52" t="s">
+      <c r="J84" s="92"/>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="B85" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="C66" s="53"/>
-      <c r="D66" s="45"/>
-      <c r="E66" s="45"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="41" t="s">
+      <c r="C85" s="73"/>
+      <c r="D85" s="61"/>
+      <c r="E85" s="61"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="H66" s="42"/>
-      <c r="I66" s="89" t="s">
+      <c r="H85" s="58"/>
+      <c r="I85" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="J66" s="90"/>
-    </row>
-    <row r="67" spans="1:12">
-      <c r="B67" s="52" t="s">
+      <c r="J85" s="94"/>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="B86" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="C67" s="53"/>
-      <c r="D67" s="45"/>
-      <c r="E67" s="45"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="41" t="s">
+      <c r="C86" s="73"/>
+      <c r="D86" s="61"/>
+      <c r="E86" s="61"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="H67" s="42"/>
-      <c r="I67" s="46" t="s">
+      <c r="H86" s="58"/>
+      <c r="I86" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="J67" s="47"/>
-    </row>
-    <row r="68" spans="1:12">
-      <c r="G68" s="43" t="s">
+      <c r="J86" s="63"/>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="G87" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="H68" s="44"/>
-      <c r="I68" s="48" t="s">
+      <c r="H87" s="60"/>
+      <c r="I87" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="J68" s="49"/>
-    </row>
-    <row r="69" spans="1:12">
-      <c r="G69" s="43">
+      <c r="J87" s="65"/>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="G88" s="59">
         <v>5</v>
       </c>
-      <c r="H69" s="44"/>
-      <c r="I69" s="37" t="s">
+      <c r="H88" s="60"/>
+      <c r="I88" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="J69" s="38"/>
-    </row>
-    <row r="73" spans="1:12" ht="15.75">
-      <c r="A73" s="4"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
-      <c r="K73" s="4"/>
-      <c r="L73" s="4"/>
-    </row>
-    <row r="74" spans="1:12">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A75" s="3"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="83"/>
-      <c r="I75" s="83"/>
-      <c r="J75" s="83"/>
-      <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="1:12">
-      <c r="A76" s="3"/>
-      <c r="B76" s="84" t="s">
+      <c r="J88" s="54"/>
+    </row>
+    <row r="92" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A92" s="3"/>
+      <c r="B92" s="22"/>
+      <c r="C92" s="22"/>
+      <c r="D92" s="22"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="66"/>
+      <c r="I92" s="66"/>
+      <c r="J92" s="66"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93" s="3"/>
+      <c r="B93" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="C76" s="84"/>
-      <c r="D76" s="84"/>
-      <c r="E76" s="84"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="84" t="s">
+      <c r="C93" s="67"/>
+      <c r="D93" s="67"/>
+      <c r="E93" s="67"/>
+      <c r="F93" s="23"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="I76" s="84"/>
-      <c r="J76" s="84"/>
-      <c r="K76" s="24"/>
-      <c r="L76" s="24"/>
-    </row>
-    <row r="77" spans="1:12">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="78" spans="1:12">
-      <c r="A78" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B78" s="32">
-        <f ca="1">NOW()</f>
-        <v>41887.896443634258</v>
-      </c>
-      <c r="C78" s="33">
-        <f ca="1">NOW()</f>
-        <v>41887.896443634258</v>
-      </c>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
-      <c r="L78" s="3"/>
-    </row>
-    <row r="80" spans="1:12" ht="15.75">
-      <c r="A80" s="4"/>
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
-      <c r="J80" s="4"/>
-    </row>
-    <row r="82" spans="2:9">
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="36"/>
-      <c r="E82" s="36"/>
-      <c r="F82" s="36"/>
-      <c r="G82" s="36"/>
-      <c r="H82" s="36"/>
-      <c r="I82" s="36"/>
-    </row>
-    <row r="83" spans="2:9">
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-    </row>
-    <row r="84" spans="2:9">
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-    </row>
-    <row r="85" spans="2:9">
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
+      <c r="I93" s="67"/>
+      <c r="J93" s="67"/>
+      <c r="K93" s="23"/>
+      <c r="L93" s="23"/>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3"/>
+      <c r="K95" s="3"/>
+      <c r="L95" s="3"/>
+    </row>
+    <row r="97" spans="1:10" ht="15.75">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="52"/>
+      <c r="E99" s="52"/>
+      <c r="F99" s="52"/>
+      <c r="G99" s="52"/>
+      <c r="H99" s="52"/>
+      <c r="I99" s="52"/>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="3"/>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+      <c r="I102" s="3"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
-  <mergeCells count="53">
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I6:J6"/>
+  <mergeCells count="56">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B93:E93"/>
     <mergeCell ref="A9:J9"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A62:J62"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="A81:J81"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="G4:H4"/>
@@ -2923,22 +4191,33 @@
     <mergeCell ref="K39:K42"/>
     <mergeCell ref="A34:E34"/>
     <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="H92:J92"/>
+    <mergeCell ref="H93:J93"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I6:J6"/>
     <mergeCell ref="K43:K46"/>
     <mergeCell ref="A43:E46"/>
     <mergeCell ref="F43:J46"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="B78:J79"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="I88:J88"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="G88:H88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/protected/modules/excel/templates/EvaluaciondeDesempenoTemplate2.xlsx
+++ b/protected/modules/excel/templates/EvaluaciondeDesempenoTemplate2.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teto\Desktop\Templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
   <si>
     <t>Módulo de Evaluación de Desempeño</t>
   </si>
@@ -45,131 +50,137 @@
     <t>Resultados</t>
   </si>
   <si>
+    <t>EVALUACIÓN FINAL</t>
+  </si>
+  <si>
+    <t>RANGO</t>
+  </si>
+  <si>
+    <t>Rango</t>
+  </si>
+  <si>
+    <t>Interpretación</t>
+  </si>
+  <si>
+    <t>De 0 a 2</t>
+  </si>
+  <si>
+    <t>Más de 2 menos de 3</t>
+  </si>
+  <si>
+    <t>De 3 a menos de 4</t>
+  </si>
+  <si>
+    <t>De 4 a menos de 5</t>
+  </si>
+  <si>
+    <t>Desempeño Superior</t>
+  </si>
+  <si>
+    <t>Desempeño Sobresaliente</t>
+  </si>
+  <si>
+    <t>Desempeño Esperado</t>
+  </si>
+  <si>
+    <t>Oportunidad de Mejora</t>
+  </si>
+  <si>
+    <t>Desempeño Insuficiente</t>
+  </si>
+  <si>
+    <t>solucion</t>
+  </si>
+  <si>
+    <t>negociacion</t>
+  </si>
+  <si>
+    <t>planificacion</t>
+  </si>
+  <si>
+    <t>trabajar bajo presion</t>
+  </si>
+  <si>
+    <t>tomar decisiones</t>
+  </si>
+  <si>
+    <t>admnistrar tiempo</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>ade</t>
+  </si>
+  <si>
+    <t>Indicador</t>
+  </si>
+  <si>
+    <t>Compromiso</t>
+  </si>
+  <si>
+    <t>Puntaje</t>
+  </si>
+  <si>
+    <t>Cumpliendo con el plan estratégico de la Universidad, aplica los procedimientos que corresponden a la ejecución de las pruebas y todo lo que conlleva (coordinación de matrícula, coordinación de aulas, oidores, jurados, entre otros) interactúa con los clientes internos (compañeros de trabajo) y externos (estudiantes, Jurados y oidores), velar por la correcta aplicación de la Ordenanza y las buenas relaciones con las Sedes, con el fin de planificar y ejecutar el calendario Universitario de las Pruebas de Grado y toda la logística en tiempo establecido.</t>
+  </si>
+  <si>
+    <t>Competencia</t>
+  </si>
+  <si>
+    <t>investigacion</t>
+  </si>
+  <si>
+    <t>logro</t>
+  </si>
+  <si>
+    <t>orientacion</t>
+  </si>
+  <si>
+    <t>esfuerzo</t>
+  </si>
+  <si>
+    <t>kkel</t>
+  </si>
+  <si>
+    <t>Firma Evaluador</t>
+  </si>
+  <si>
+    <t>Firma Colaborador</t>
+  </si>
+  <si>
+    <t>Alineamiento organizacional</t>
+  </si>
+  <si>
+    <t>Pensamiento estrategico</t>
+  </si>
+  <si>
+    <t>Toma de decisiones</t>
+  </si>
+  <si>
+    <t>Fecha de Registro de Evaluación:</t>
+  </si>
+  <si>
+    <t>Fecha de Registro de Compromisos:</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
+  </si>
+  <si>
+    <t>Escala</t>
+  </si>
+  <si>
     <t>Nivel Puntualizaciones</t>
   </si>
   <si>
     <t>Nivel Competencias</t>
-  </si>
-  <si>
-    <t>EVALUACIÓN FINAL</t>
-  </si>
-  <si>
-    <t>RANGO</t>
-  </si>
-  <si>
-    <t>Rango</t>
-  </si>
-  <si>
-    <t>Interpretación</t>
-  </si>
-  <si>
-    <t>De 0 a 2</t>
-  </si>
-  <si>
-    <t>Más de 2 menos de 3</t>
-  </si>
-  <si>
-    <t>De 3 a menos de 4</t>
-  </si>
-  <si>
-    <t>De 4 a menos de 5</t>
-  </si>
-  <si>
-    <t>Desempeño Superior</t>
-  </si>
-  <si>
-    <t>Desempeño Sobresaliente</t>
-  </si>
-  <si>
-    <t>Desempeño Esperado</t>
-  </si>
-  <si>
-    <t>Oportunidad de Mejora</t>
-  </si>
-  <si>
-    <t>Desempeño Insuficiente</t>
-  </si>
-  <si>
-    <t>solucion</t>
-  </si>
-  <si>
-    <t>negociacion</t>
-  </si>
-  <si>
-    <t>planificacion</t>
-  </si>
-  <si>
-    <t>trabajar bajo presion</t>
-  </si>
-  <si>
-    <t>tomar decisiones</t>
-  </si>
-  <si>
-    <t>admnistrar tiempo</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>ade</t>
-  </si>
-  <si>
-    <t>Indicador</t>
-  </si>
-  <si>
-    <t>Compromiso</t>
-  </si>
-  <si>
-    <t>Puntaje</t>
-  </si>
-  <si>
-    <t>Cumpliendo con el plan estratégico de la Universidad, aplica los procedimientos que corresponden a la ejecución de las pruebas y todo lo que conlleva (coordinación de matrícula, coordinación de aulas, oidores, jurados, entre otros) interactúa con los clientes internos (compañeros de trabajo) y externos (estudiantes, Jurados y oidores), velar por la correcta aplicación de la Ordenanza y las buenas relaciones con las Sedes, con el fin de planificar y ejecutar el calendario Universitario de las Pruebas de Grado y toda la logística en tiempo establecido.</t>
-  </si>
-  <si>
-    <t>Competencia</t>
-  </si>
-  <si>
-    <t>investigacion</t>
-  </si>
-  <si>
-    <t>logro</t>
-  </si>
-  <si>
-    <t>orientacion</t>
-  </si>
-  <si>
-    <t>esfuerzo</t>
-  </si>
-  <si>
-    <t>Firma Evaluador</t>
-  </si>
-  <si>
-    <t>Firma Colaborador</t>
-  </si>
-  <si>
-    <t>Alineamiento organizacional</t>
-  </si>
-  <si>
-    <t>Pensamiento estrategico</t>
-  </si>
-  <si>
-    <t>Toma de decisiones</t>
-  </si>
-  <si>
-    <t>Fecha de Registro de Evaluación:</t>
-  </si>
-  <si>
-    <t>Fecha de Registro de Compromisos:</t>
-  </si>
-  <si>
-    <t>Comentarios</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -552,7 +563,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -642,6 +653,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -678,6 +696,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -758,12 +780,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -823,6 +839,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -839,27 +861,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -881,7 +903,17 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-ES"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -914,6 +946,8 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -922,6 +956,7 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -931,6 +966,7 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$K$34</c:f>
@@ -958,6 +994,7 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$K$34</c:f>
@@ -982,6 +1019,7 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$K$34</c:f>
@@ -1006,6 +1044,7 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$K$34</c:f>
@@ -1030,6 +1069,7 @@
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$K$34</c:f>
@@ -1054,6 +1094,7 @@
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$K$34</c:f>
@@ -1078,6 +1119,7 @@
         <c:ser>
           <c:idx val="6"/>
           <c:order val="6"/>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$K$34</c:f>
@@ -1102,6 +1144,7 @@
         <c:ser>
           <c:idx val="7"/>
           <c:order val="7"/>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$K$34</c:f>
@@ -1126,6 +1169,7 @@
         <c:ser>
           <c:idx val="8"/>
           <c:order val="8"/>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$K$34</c:f>
@@ -1150,6 +1194,7 @@
         <c:ser>
           <c:idx val="9"/>
           <c:order val="9"/>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$K$34</c:f>
@@ -1174,6 +1219,7 @@
         <c:ser>
           <c:idx val="10"/>
           <c:order val="10"/>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$K$34</c:f>
@@ -1198,6 +1244,7 @@
         <c:ser>
           <c:idx val="11"/>
           <c:order val="11"/>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$K$34</c:f>
@@ -1219,13 +1266,121 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Puntaje</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Puntaje</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Puntaje</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Puntaje</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="91355392"/>
-        <c:axId val="91693056"/>
+        <c:axId val="179962360"/>
+        <c:axId val="180002096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="91355392"/>
+        <c:axId val="179962360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1233,18 +1388,21 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="91693056"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="180002096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91693056"/>
+        <c:axId val="180002096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1286,6 +1444,8 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1296,6 +1456,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1321,10 +1482,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91355392"/>
+        <c:crossAx val="179962360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1338,6 +1499,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1361,12 +1523,12 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="es-CR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1374,7 +1536,17 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-ES"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1407,6 +1579,8 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1415,6 +1589,7 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1426,7 +1601,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$48</c:f>
+              <c:f>Sheet1!$F$52</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1435,11 +1610,12 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$E$49:$E$55</c:f>
+              <c:f>Sheet1!$E$53:$E$60</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Alineamiento organizacional</c:v>
                 </c:pt>
@@ -1460,16 +1636,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>esfuerzo</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>kkel</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$49:$F$55</c:f>
+              <c:f>Sheet1!$F$53:$F$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1490,18 +1669,29 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="91721728"/>
-        <c:axId val="91723264"/>
+        <c:axId val="199199752"/>
+        <c:axId val="199200136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="91721728"/>
+        <c:axId val="199199752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1509,18 +1699,21 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="91723264"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="199200136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91723264"/>
+        <c:axId val="199200136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1562,6 +1755,8 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1572,6 +1767,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1597,10 +1793,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91721728"/>
+        <c:crossAx val="199199752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1614,6 +1810,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1637,12 +1834,12 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="es-CR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1650,7 +1847,17 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-ES"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1679,6 +1886,7 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1686,12 +1894,34 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CR"/>
+        </a:p>
+      </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1706,6 +1936,24 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$N$72:$P$72</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Escala</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Nivel Puntualizaciones</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nivel Competencias</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$N$64</c:f>
@@ -1731,6 +1979,24 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$N$72:$P$72</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Escala</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Nivel Puntualizaciones</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nivel Competencias</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$N$65</c:f>
@@ -1756,6 +2022,24 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$N$72:$P$72</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Escala</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Nivel Puntualizaciones</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nivel Competencias</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$N$66</c:f>
@@ -1781,6 +2065,24 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$N$72:$P$72</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Escala</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Nivel Puntualizaciones</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nivel Competencias</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$N$67</c:f>
@@ -1806,6 +2108,24 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$N$72:$P$72</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Escala</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Nivel Puntualizaciones</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nivel Competencias</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$N$68</c:f>
@@ -1831,6 +2151,24 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$N$72:$P$72</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Escala</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Nivel Puntualizaciones</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nivel Competencias</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$N$69</c:f>
@@ -1856,6 +2194,24 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$N$72:$P$72</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Escala</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Nivel Puntualizaciones</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nivel Competencias</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$N$70:$P$70</c:f>
@@ -1883,6 +2239,24 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$N$72:$P$72</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Escala</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Nivel Puntualizaciones</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nivel Competencias</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$N$71:$P$71</c:f>
@@ -1896,32 +2270,28 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="103159680"/>
-        <c:axId val="103161216"/>
+        <c:axId val="199294344"/>
+        <c:axId val="178918440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="103159680"/>
+        <c:axId val="199294344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="103161216"/>
-        <c:crosses val="autoZero"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="103161216"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1947,10 +2317,55 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="es-CR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103159680"/>
+        <c:crossAx val="178918440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="178918440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="199294344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1964,6 +2379,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1987,12 +2403,12 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="es-CR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2674,7 +3090,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2709,7 +3125,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2886,22 +3302,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78:J79"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83:C84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
@@ -2918,207 +3334,207 @@
     <col min="13" max="13" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
       <c r="L1" s="8"/>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="75" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
       <c r="L2" s="9"/>
     </row>
-    <row r="4" spans="1:12">
-      <c r="B4" s="68" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="68" t="s">
+      <c r="G4" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="68"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:12">
-      <c r="B5" s="68" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="68" t="s">
+      <c r="G5" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="68"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:12" ht="30" customHeight="1">
-      <c r="B6" s="89" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="89"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
+    <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="90" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="90"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="69" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="69"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
+      <c r="G6" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="72"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="91"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-    </row>
-    <row r="9" spans="1:12" ht="15.75">
-      <c r="A9" s="90" t="s">
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="90"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="90"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K11" s="10"/>
       <c r="L11" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K12" s="10"/>
       <c r="L12" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K13" s="10"/>
       <c r="L13" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K14" s="10"/>
       <c r="L14" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K17" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L17" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K18" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L18" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K19" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L19" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K20" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L20" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K21" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L21" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K22" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L22" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K23" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L23" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K24" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L24" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -3132,7 +3548,7 @@
       <c r="L32" s="6"/>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -3146,331 +3562,315 @@
       <c r="L33" s="6"/>
       <c r="M33" s="2"/>
     </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="76" t="s">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="77"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" s="77"/>
+      <c r="H34" s="77"/>
+      <c r="I34" s="77"/>
+      <c r="J34" s="77"/>
+      <c r="K34" s="21" t="s">
         <v>31</v>
-      </c>
-      <c r="B34" s="76"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="76" t="s">
-        <v>32</v>
-      </c>
-      <c r="G34" s="76"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="76"/>
-      <c r="J34" s="76"/>
-      <c r="K34" s="21" t="s">
-        <v>33</v>
       </c>
       <c r="L34" s="6"/>
       <c r="M34" s="2"/>
     </row>
-    <row r="35" spans="1:13" ht="15" customHeight="1">
-      <c r="A35" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="45"/>
-      <c r="K35" s="77">
+    <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="78">
         <v>2</v>
       </c>
       <c r="L35" s="6"/>
       <c r="M35" s="2"/>
     </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="37"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="48"/>
-      <c r="K36" s="78"/>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="39"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="79"/>
       <c r="L36" s="6"/>
       <c r="M36" s="2"/>
     </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="37"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="48"/>
-      <c r="K37" s="78"/>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="39"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="79"/>
       <c r="L37" s="6"/>
       <c r="M37" s="2"/>
     </row>
-    <row r="38" spans="1:13" ht="24.75" customHeight="1">
-      <c r="A38" s="40"/>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="50"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="51"/>
-      <c r="K38" s="79"/>
+    <row r="38" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="42"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="54"/>
+      <c r="K38" s="80"/>
       <c r="L38" s="6"/>
       <c r="M38" s="2"/>
     </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="80"/>
-      <c r="B39" s="81"/>
-      <c r="C39" s="81"/>
-      <c r="D39" s="81"/>
-      <c r="E39" s="82"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="45"/>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="81"/>
+      <c r="B39" s="82"/>
+      <c r="C39" s="82"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="83"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="48"/>
       <c r="K39" s="31"/>
       <c r="L39" s="6"/>
       <c r="M39" s="2"/>
     </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="83"/>
-      <c r="B40" s="84"/>
-      <c r="C40" s="84"/>
-      <c r="D40" s="84"/>
-      <c r="E40" s="85"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="47"/>
-      <c r="I40" s="47"/>
-      <c r="J40" s="48"/>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="84"/>
+      <c r="B40" s="85"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="85"/>
+      <c r="E40" s="86"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="51"/>
       <c r="K40" s="32"/>
       <c r="L40" s="6"/>
       <c r="M40" s="2"/>
     </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="83"/>
-      <c r="B41" s="84"/>
-      <c r="C41" s="84"/>
-      <c r="D41" s="84"/>
-      <c r="E41" s="85"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="47"/>
-      <c r="I41" s="47"/>
-      <c r="J41" s="48"/>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="84"/>
+      <c r="B41" s="85"/>
+      <c r="C41" s="85"/>
+      <c r="D41" s="85"/>
+      <c r="E41" s="86"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="50"/>
+      <c r="J41" s="51"/>
       <c r="K41" s="32"/>
       <c r="L41" s="6"/>
       <c r="M41" s="2"/>
     </row>
-    <row r="42" spans="1:13" ht="25.5" customHeight="1">
-      <c r="A42" s="86"/>
-      <c r="B42" s="87"/>
-      <c r="C42" s="87"/>
-      <c r="D42" s="87"/>
-      <c r="E42" s="88"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="50"/>
-      <c r="H42" s="50"/>
-      <c r="I42" s="50"/>
-      <c r="J42" s="51"/>
+    <row r="42" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="87"/>
+      <c r="B42" s="88"/>
+      <c r="C42" s="88"/>
+      <c r="D42" s="88"/>
+      <c r="E42" s="89"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="53"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="54"/>
       <c r="K42" s="33"/>
       <c r="L42" s="6"/>
       <c r="M42" s="2"/>
     </row>
-    <row r="43" spans="1:13">
-      <c r="A43" s="34"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="44"/>
-      <c r="I43" s="44"/>
-      <c r="J43" s="45"/>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="36"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="48"/>
       <c r="K43" s="31"/>
       <c r="L43" s="6"/>
       <c r="M43" s="2"/>
     </row>
-    <row r="44" spans="1:13">
-      <c r="A44" s="37"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="47"/>
-      <c r="H44" s="47"/>
-      <c r="I44" s="47"/>
-      <c r="J44" s="48"/>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="39"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="51"/>
       <c r="K44" s="32"/>
       <c r="L44" s="6"/>
       <c r="M44" s="2"/>
     </row>
-    <row r="45" spans="1:13">
-      <c r="A45" s="37"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="47"/>
-      <c r="H45" s="47"/>
-      <c r="I45" s="47"/>
-      <c r="J45" s="48"/>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="39"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="50"/>
+      <c r="J45" s="51"/>
       <c r="K45" s="32"/>
       <c r="L45" s="6"/>
       <c r="M45" s="2"/>
     </row>
-    <row r="46" spans="1:13" ht="25.5" customHeight="1">
-      <c r="A46" s="40"/>
-      <c r="B46" s="41"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="50"/>
-      <c r="H46" s="50"/>
-      <c r="I46" s="50"/>
-      <c r="J46" s="51"/>
+    <row r="46" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="42"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="53"/>
+      <c r="H46" s="53"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="54"/>
       <c r="K46" s="33"/>
       <c r="L46" s="6"/>
       <c r="M46" s="2"/>
     </row>
-    <row r="47" spans="1:13">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="14"/>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="45"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="34"/>
+      <c r="K47" s="35"/>
       <c r="L47" s="6"/>
       <c r="M47" s="2"/>
     </row>
-    <row r="48" spans="1:13">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="F48" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="G48" s="16"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="14"/>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="45"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="35"/>
       <c r="L48" s="6"/>
       <c r="M48" s="2"/>
     </row>
-    <row r="49" spans="1:16" ht="37.5" customHeight="1">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="F49" s="19">
-        <v>2</v>
-      </c>
-      <c r="G49" s="16"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="14"/>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="45"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="34"/>
+      <c r="K49" s="35"/>
       <c r="L49" s="6"/>
       <c r="M49" s="2"/>
     </row>
-    <row r="50" spans="1:16">
-      <c r="A50" s="12"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F50" s="19">
-        <v>4</v>
-      </c>
-      <c r="G50" s="16"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="14"/>
+    <row r="50" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="45"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="34"/>
+      <c r="K50" s="35"/>
       <c r="L50" s="6"/>
       <c r="M50" s="2"/>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
-      <c r="E51" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F51" s="19">
-        <v>4</v>
-      </c>
-      <c r="G51" s="16"/>
-      <c r="H51" s="17"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
       <c r="I51" s="13"/>
       <c r="J51" s="13"/>
       <c r="K51" s="14"/>
       <c r="L51" s="6"/>
       <c r="M51" s="2"/>
     </row>
-    <row r="52" spans="1:16" ht="18.75" customHeight="1">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
-      <c r="E52" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="F52" s="19">
-        <v>3</v>
+      <c r="E52" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F52" s="24" t="s">
+        <v>31</v>
       </c>
       <c r="G52" s="16"/>
-      <c r="H52" s="17"/>
+      <c r="H52" s="15"/>
       <c r="I52" s="13"/>
       <c r="J52" s="13"/>
       <c r="K52" s="14"/>
       <c r="L52" s="6"/>
       <c r="M52" s="2"/>
     </row>
-    <row r="53" spans="1:16" ht="16.5" customHeight="1">
+    <row r="53" spans="1:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12"/>
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
       <c r="E53" s="18" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F53" s="19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G53" s="16"/>
       <c r="H53" s="17"/>
@@ -3480,16 +3880,16 @@
       <c r="L53" s="6"/>
       <c r="M53" s="2"/>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
       <c r="E54" s="18" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F54" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G54" s="16"/>
       <c r="H54" s="17"/>
@@ -3499,77 +3899,93 @@
       <c r="L54" s="6"/>
       <c r="M54" s="2"/>
     </row>
-    <row r="55" spans="1:16">
-      <c r="A55" s="11"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" s="12"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
       <c r="E55" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="F55" s="20">
+        <v>43</v>
+      </c>
+      <c r="F55" s="19">
         <v>4</v>
       </c>
       <c r="G55" s="16"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
+      <c r="K55" s="14"/>
       <c r="L55" s="6"/>
       <c r="M55" s="2"/>
     </row>
-    <row r="56" spans="1:16">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="27"/>
+    <row r="56" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="12"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F56" s="19">
+        <v>3</v>
+      </c>
       <c r="G56" s="16"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
+      <c r="K56" s="14"/>
       <c r="L56" s="6"/>
       <c r="M56" s="2"/>
     </row>
-    <row r="57" spans="1:16">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="27"/>
+    <row r="57" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="12"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F57" s="19">
+        <v>5</v>
+      </c>
       <c r="G57" s="16"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="14"/>
       <c r="L57" s="6"/>
       <c r="M57" s="2"/>
     </row>
-    <row r="58" spans="1:16">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="27"/>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" s="12"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F58" s="19">
+        <v>5</v>
+      </c>
       <c r="G58" s="16"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="13"/>
+      <c r="K58" s="14"/>
       <c r="L58" s="6"/>
       <c r="M58" s="2"/>
     </row>
-    <row r="59" spans="1:16">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="27"/>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" s="11"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F59" s="20">
+        <v>4</v>
+      </c>
       <c r="G59" s="16"/>
       <c r="H59" s="5"/>
       <c r="I59" s="6"/>
@@ -3578,13 +3994,17 @@
       <c r="L59" s="6"/>
       <c r="M59" s="2"/>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="27"/>
+      <c r="E60" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F60" s="20">
+        <v>2</v>
+      </c>
       <c r="G60" s="16"/>
       <c r="H60" s="5"/>
       <c r="I60" s="6"/>
@@ -3593,7 +4013,7 @@
       <c r="L60" s="6"/>
       <c r="M60" s="2"/>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -3608,7 +4028,7 @@
       <c r="L61" s="6"/>
       <c r="M61" s="2"/>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -3623,7 +4043,7 @@
       <c r="L62" s="6"/>
       <c r="M62" s="2"/>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -3638,7 +4058,7 @@
       <c r="L63" s="6"/>
       <c r="M63" s="2"/>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -3658,7 +4078,7 @@
       <c r="O64" s="30"/>
       <c r="P64" s="30"/>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -3678,7 +4098,7 @@
       <c r="O65" s="30"/>
       <c r="P65" s="30"/>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -3698,7 +4118,7 @@
       <c r="O66" s="30"/>
       <c r="P66" s="30"/>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -3718,7 +4138,7 @@
       <c r="O67" s="30"/>
       <c r="P67" s="30"/>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -3738,7 +4158,7 @@
       <c r="O68" s="30"/>
       <c r="P68" s="30"/>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -3758,7 +4178,7 @@
       <c r="O69" s="30"/>
       <c r="P69" s="30"/>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -3778,7 +4198,7 @@
       </c>
       <c r="P70" s="30"/>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -3798,7 +4218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -3812,8 +4232,17 @@
       <c r="K72" s="6"/>
       <c r="L72" s="6"/>
       <c r="M72" s="2"/>
-    </row>
-    <row r="73" spans="1:16">
+      <c r="N72" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="O72" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="P72" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -3828,7 +4257,7 @@
       <c r="L73" s="6"/>
       <c r="M73" s="2"/>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -3843,7 +4272,7 @@
       <c r="L74" s="6"/>
       <c r="M74" s="2"/>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -3858,7 +4287,7 @@
       <c r="L75" s="6"/>
       <c r="M75" s="2"/>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -3873,10 +4302,10 @@
       <c r="L76" s="6"/>
       <c r="M76" s="2"/>
     </row>
-    <row r="77" spans="1:16" ht="15.75" thickBot="1">
+    <row r="77" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="7"/>
       <c r="B77" s="28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C77" s="28"/>
       <c r="D77" s="7"/>
@@ -3890,37 +4319,37 @@
       <c r="L77" s="6"/>
       <c r="M77" s="2"/>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="7"/>
-      <c r="B78" s="95"/>
-      <c r="C78" s="96"/>
-      <c r="D78" s="96"/>
-      <c r="E78" s="96"/>
-      <c r="F78" s="96"/>
-      <c r="G78" s="96"/>
-      <c r="H78" s="96"/>
-      <c r="I78" s="96"/>
-      <c r="J78" s="97"/>
+      <c r="B78" s="98"/>
+      <c r="C78" s="99"/>
+      <c r="D78" s="99"/>
+      <c r="E78" s="99"/>
+      <c r="F78" s="99"/>
+      <c r="G78" s="99"/>
+      <c r="H78" s="99"/>
+      <c r="I78" s="99"/>
+      <c r="J78" s="100"/>
       <c r="K78" s="6"/>
       <c r="L78" s="6"/>
       <c r="M78" s="2"/>
     </row>
-    <row r="79" spans="1:16" ht="15.75" thickBot="1">
+    <row r="79" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="7"/>
-      <c r="B79" s="98"/>
-      <c r="C79" s="99"/>
-      <c r="D79" s="99"/>
-      <c r="E79" s="99"/>
-      <c r="F79" s="99"/>
-      <c r="G79" s="99"/>
-      <c r="H79" s="99"/>
-      <c r="I79" s="99"/>
-      <c r="J79" s="100"/>
+      <c r="B79" s="101"/>
+      <c r="C79" s="102"/>
+      <c r="D79" s="102"/>
+      <c r="E79" s="102"/>
+      <c r="F79" s="102"/>
+      <c r="G79" s="102"/>
+      <c r="H79" s="102"/>
+      <c r="I79" s="102"/>
+      <c r="J79" s="103"/>
       <c r="K79" s="6"/>
       <c r="L79" s="6"/>
       <c r="M79" s="2"/>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -3935,119 +4364,119 @@
       <c r="L80" s="6"/>
       <c r="M80" s="2"/>
     </row>
-    <row r="81" spans="1:12" ht="15.75">
-      <c r="A81" s="90" t="s">
+    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="B81" s="90"/>
-      <c r="C81" s="90"/>
-      <c r="D81" s="90"/>
-      <c r="E81" s="90"/>
-      <c r="F81" s="90"/>
-      <c r="G81" s="90"/>
-      <c r="H81" s="90"/>
-      <c r="I81" s="90"/>
-      <c r="J81" s="90"/>
+      <c r="B81" s="93"/>
+      <c r="C81" s="93"/>
+      <c r="D81" s="93"/>
+      <c r="E81" s="93"/>
+      <c r="F81" s="93"/>
+      <c r="G81" s="93"/>
+      <c r="H81" s="93"/>
+      <c r="I81" s="93"/>
+      <c r="J81" s="93"/>
       <c r="K81" s="4"/>
       <c r="L81" s="4"/>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="1:12">
-      <c r="B83" s="72" t="s">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B83" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="C83" s="74"/>
+      <c r="D83" s="64">
+        <v>2</v>
+      </c>
+      <c r="E83" s="64"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="H83" s="59"/>
+      <c r="I83" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="J83" s="59"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B84" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="C84" s="74"/>
+      <c r="D84" s="64">
+        <v>3</v>
+      </c>
+      <c r="E84" s="64"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="H84" s="61"/>
+      <c r="I84" s="94" t="s">
+        <v>20</v>
+      </c>
+      <c r="J84" s="95"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B85" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C83" s="73"/>
-      <c r="D83" s="61">
-        <v>2</v>
-      </c>
-      <c r="E83" s="61"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="H83" s="56"/>
-      <c r="I83" s="55" t="s">
+      <c r="C85" s="74"/>
+      <c r="D85" s="64"/>
+      <c r="E85" s="64"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="J83" s="56"/>
-    </row>
-    <row r="84" spans="1:12">
-      <c r="B84" s="72" t="s">
+      <c r="H85" s="61"/>
+      <c r="I85" s="96" t="s">
+        <v>19</v>
+      </c>
+      <c r="J85" s="97"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B86" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="C84" s="73"/>
-      <c r="D84" s="61">
-        <v>3</v>
-      </c>
-      <c r="E84" s="61"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="57" t="s">
+      <c r="C86" s="74"/>
+      <c r="D86" s="64"/>
+      <c r="E86" s="64"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="H84" s="58"/>
-      <c r="I84" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="J84" s="92"/>
-    </row>
-    <row r="85" spans="1:12">
-      <c r="B85" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="C85" s="73"/>
-      <c r="D85" s="61"/>
-      <c r="E85" s="61"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="57" t="s">
+      <c r="H86" s="61"/>
+      <c r="I86" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="J86" s="66"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G87" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="H85" s="58"/>
-      <c r="I85" s="93" t="s">
-        <v>21</v>
-      </c>
-      <c r="J85" s="94"/>
-    </row>
-    <row r="86" spans="1:12">
-      <c r="B86" s="72" t="s">
-        <v>11</v>
-      </c>
-      <c r="C86" s="73"/>
-      <c r="D86" s="61"/>
-      <c r="E86" s="61"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="57" t="s">
+      <c r="H87" s="63"/>
+      <c r="I87" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="J87" s="68"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G88" s="62">
+        <v>5</v>
+      </c>
+      <c r="H88" s="63"/>
+      <c r="I88" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="H86" s="58"/>
-      <c r="I86" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="J86" s="63"/>
-    </row>
-    <row r="87" spans="1:12">
-      <c r="G87" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="H87" s="60"/>
-      <c r="I87" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="J87" s="65"/>
-    </row>
-    <row r="88" spans="1:12">
-      <c r="G88" s="59">
-        <v>5</v>
-      </c>
-      <c r="H88" s="60"/>
-      <c r="I88" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="J88" s="54"/>
-    </row>
-    <row r="92" spans="1:12" ht="15.75" thickBot="1">
+      <c r="J88" s="57"/>
+    </row>
+    <row r="92" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3"/>
       <c r="B92" s="22"/>
       <c r="C92" s="22"/>
@@ -4055,31 +4484,31 @@
       <c r="E92" s="22"/>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
-      <c r="H92" s="66"/>
-      <c r="I92" s="66"/>
-      <c r="J92" s="66"/>
+      <c r="H92" s="69"/>
+      <c r="I92" s="69"/>
+      <c r="J92" s="69"/>
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
-      <c r="B93" s="67" t="s">
-        <v>40</v>
-      </c>
-      <c r="C93" s="67"/>
-      <c r="D93" s="67"/>
-      <c r="E93" s="67"/>
+      <c r="B93" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="C93" s="70"/>
+      <c r="D93" s="70"/>
+      <c r="E93" s="70"/>
       <c r="F93" s="23"/>
       <c r="G93" s="3"/>
-      <c r="H93" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="I93" s="67"/>
-      <c r="J93" s="67"/>
+      <c r="H93" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="I93" s="70"/>
+      <c r="J93" s="70"/>
       <c r="K93" s="23"/>
       <c r="L93" s="23"/>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -4093,7 +4522,7 @@
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -4107,7 +4536,7 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="97" spans="1:10" ht="15.75">
+    <row r="97" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -4119,17 +4548,17 @@
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
-      <c r="D99" s="52"/>
-      <c r="E99" s="52"/>
-      <c r="F99" s="52"/>
-      <c r="G99" s="52"/>
-      <c r="H99" s="52"/>
-      <c r="I99" s="52"/>
-    </row>
-    <row r="100" spans="1:10">
+      <c r="D99" s="55"/>
+      <c r="E99" s="55"/>
+      <c r="F99" s="55"/>
+      <c r="G99" s="55"/>
+      <c r="H99" s="55"/>
+      <c r="I99" s="55"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
@@ -4139,7 +4568,7 @@
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
@@ -4149,7 +4578,7 @@
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
@@ -4161,12 +4590,10 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
-  <mergeCells count="56">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
+  <mergeCells count="59">
     <mergeCell ref="B93:E93"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I6:J6"/>
     <mergeCell ref="A9:J9"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="A81:J81"/>
@@ -4178,6 +4605,15 @@
     <mergeCell ref="I84:J84"/>
     <mergeCell ref="I85:J85"/>
     <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B78:J79"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="B86:C86"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
@@ -4192,20 +4628,6 @@
     <mergeCell ref="A34:E34"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="I5:J5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="H92:J92"/>
-    <mergeCell ref="H93:J93"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K43:K46"/>
-    <mergeCell ref="A43:E46"/>
-    <mergeCell ref="F43:J46"/>
-    <mergeCell ref="B78:J79"/>
     <mergeCell ref="D99:E99"/>
     <mergeCell ref="F99:G99"/>
     <mergeCell ref="H99:I99"/>
@@ -4218,6 +4640,16 @@
     <mergeCell ref="I83:J83"/>
     <mergeCell ref="D86:E86"/>
     <mergeCell ref="G88:H88"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="H92:J92"/>
+    <mergeCell ref="H93:J93"/>
+    <mergeCell ref="K43:K46"/>
+    <mergeCell ref="F47:J50"/>
+    <mergeCell ref="K47:K50"/>
+    <mergeCell ref="A43:E46"/>
+    <mergeCell ref="A47:E50"/>
+    <mergeCell ref="F43:J46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
